--- a/Financial Modelling Prep Library/Company Financial Data/MSFT/annual/balance_sheets.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/MSFT/annual/balance_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="249">
   <si>
     <t>date</t>
   </si>
@@ -181,15 +181,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>MSFT-FY-1986</t>
-  </si>
-  <si>
-    <t>MSFT-FY-1987</t>
-  </si>
-  <si>
-    <t>MSFT-FY-1988</t>
-  </si>
-  <si>
     <t>MSFT-FY-1989</t>
   </si>
   <si>
@@ -301,15 +292,6 @@
     <t>0000789019</t>
   </si>
   <si>
-    <t>1986-06-30</t>
-  </si>
-  <si>
-    <t>1987-06-30</t>
-  </si>
-  <si>
-    <t>1988-06-30</t>
-  </si>
-  <si>
     <t>1989-06-30</t>
   </si>
   <si>
@@ -412,15 +394,6 @@
     <t>2022-07-28</t>
   </si>
   <si>
-    <t>1986-06-29 20:00:00</t>
-  </si>
-  <si>
-    <t>1987-06-29 20:00:00</t>
-  </si>
-  <si>
-    <t>1988-06-29 20:00:00</t>
-  </si>
-  <si>
     <t>1989-06-29 20:00:00</t>
   </si>
   <si>
@@ -521,15 +494,6 @@
   </si>
   <si>
     <t>2022-07-28 16:06:19</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
   </si>
   <si>
     <t>1989</t>
@@ -1171,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC38"/>
+  <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1349,52 +1313,52 @@
         <v>55</v>
       </c>
       <c r="B2" s="2">
-        <v>31593</v>
+        <v>32689</v>
       </c>
       <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J2">
-        <v>102700000</v>
+        <v>192400000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>102700000</v>
+        <v>192400000</v>
       </c>
       <c r="M2">
-        <v>34500000</v>
+        <v>111200000</v>
       </c>
       <c r="N2">
-        <v>8000000</v>
+        <v>37800000</v>
       </c>
       <c r="O2">
-        <v>2800000</v>
+        <v>127500000</v>
       </c>
       <c r="P2">
-        <v>148000000</v>
+        <v>468900000</v>
       </c>
       <c r="Q2">
-        <v>19500000</v>
+        <v>198800000</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1412,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3200000</v>
+        <v>52900000</v>
       </c>
       <c r="X2">
-        <v>22700000</v>
+        <v>251700000</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>170700000</v>
+        <v>720600000</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>42000000</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1436,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>29500000</v>
+        <v>116800000</v>
       </c>
       <c r="AF2">
-        <v>29500000</v>
+        <v>158800000</v>
       </c>
       <c r="AG2">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1454,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1463,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>31400000</v>
+        <v>158800000</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1472,37 +1436,37 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>89200000</v>
+        <v>455600000</v>
       </c>
       <c r="AR2">
-        <v>-11000000</v>
+        <v>-49800000</v>
       </c>
       <c r="AS2">
-        <v>61100000</v>
+        <v>156000000</v>
       </c>
       <c r="AT2">
-        <v>139300000</v>
+        <v>561800000</v>
       </c>
       <c r="AU2">
-        <v>139300000</v>
+        <v>561800000</v>
       </c>
       <c r="AV2">
-        <v>170700000</v>
+        <v>720600000</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>170700000</v>
+        <v>720600000</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1900000</v>
+        <v>25400000</v>
       </c>
       <c r="BA2">
-        <v>-100800000</v>
+        <v>-167000000</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1510,52 +1474,52 @@
         <v>56</v>
       </c>
       <c r="B3" s="2">
-        <v>31958</v>
+        <v>33054</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J3">
-        <v>132500000</v>
+        <v>246300000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>132500000</v>
+        <v>246300000</v>
       </c>
       <c r="M3">
-        <v>55100000</v>
+        <v>181000000</v>
       </c>
       <c r="N3">
-        <v>16600000</v>
+        <v>55600000</v>
       </c>
       <c r="O3">
-        <v>8800000</v>
+        <v>237000000</v>
       </c>
       <c r="P3">
-        <v>213000000</v>
+        <v>719900000</v>
       </c>
       <c r="Q3">
-        <v>70000000</v>
+        <v>325400000</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1573,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>4800000</v>
+        <v>60000000</v>
       </c>
       <c r="X3">
-        <v>74800000</v>
+        <v>385400000</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>287800000</v>
+        <v>1105300000</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>51000000</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1597,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>46600000</v>
+        <v>135800000</v>
       </c>
       <c r="AF3">
-        <v>46600000</v>
+        <v>186800000</v>
       </c>
       <c r="AG3">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1612,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>100000</v>
+        <v>-100000</v>
       </c>
       <c r="AK3">
-        <v>2100000</v>
+        <v>-100000</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1624,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>48700000</v>
+        <v>186700000</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1633,37 +1597,37 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>161100000</v>
+        <v>688900000</v>
       </c>
       <c r="AR3">
-        <v>-18600000</v>
+        <v>-73900000</v>
       </c>
       <c r="AS3">
-        <v>96600000</v>
+        <v>303600000</v>
       </c>
       <c r="AT3">
-        <v>239100000</v>
+        <v>918600000</v>
       </c>
       <c r="AU3">
-        <v>239100000</v>
+        <v>918600000</v>
       </c>
       <c r="AV3">
-        <v>287800000</v>
+        <v>1105300000</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>287800000</v>
+        <v>1105300000</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>7100000</v>
+        <v>6500000</v>
       </c>
       <c r="BA3">
-        <v>-125400000</v>
+        <v>-239800000</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1671,61 +1635,61 @@
         <v>57</v>
       </c>
       <c r="B4" s="2">
-        <v>32324</v>
+        <v>33419</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
         <v>94</v>
       </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J4">
-        <v>183200000</v>
+        <v>417200000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>183200000</v>
+        <v>417200000</v>
       </c>
       <c r="M4">
-        <v>93600000</v>
+        <v>243300000</v>
       </c>
       <c r="N4">
-        <v>53500000</v>
+        <v>47100000</v>
       </c>
       <c r="O4">
-        <v>15000000</v>
+        <v>320900000</v>
       </c>
       <c r="P4">
-        <v>345300000</v>
+        <v>1028500000</v>
       </c>
       <c r="Q4">
-        <v>130100000</v>
+        <v>530200000</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>7900000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>7900000</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1734,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>9700000</v>
+        <v>85500000</v>
       </c>
       <c r="X4">
-        <v>147700000</v>
+        <v>615700000</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>493000000</v>
+        <v>1644200000</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>85900000</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1758,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>117600000</v>
+        <v>207500000</v>
       </c>
       <c r="AF4">
-        <v>117600000</v>
+        <v>293400000</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1773,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1785,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>117500000</v>
+        <v>293400000</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1794,37 +1758,37 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>285000000</v>
+        <v>956300000</v>
       </c>
       <c r="AR4">
-        <v>-30100000</v>
+        <v>-118500000</v>
       </c>
       <c r="AS4">
-        <v>120600000</v>
+        <v>513000000</v>
       </c>
       <c r="AT4">
-        <v>375500000</v>
+        <v>1350800000</v>
       </c>
       <c r="AU4">
-        <v>375500000</v>
+        <v>1350800000</v>
       </c>
       <c r="AV4">
-        <v>493000000</v>
+        <v>1644200000</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>493000000</v>
+        <v>1644200000</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>20300000</v>
+        <v>19500000</v>
       </c>
       <c r="BA4">
-        <v>-162900000</v>
+        <v>-397700000</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1832,52 +1796,52 @@
         <v>58</v>
       </c>
       <c r="B5" s="2">
-        <v>32689</v>
+        <v>33785</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J5">
-        <v>192400000</v>
+        <v>791400000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>192400000</v>
+        <v>791400000</v>
       </c>
       <c r="M5">
-        <v>111200000</v>
+        <v>823700000</v>
       </c>
       <c r="N5">
-        <v>37800000</v>
+        <v>85900000</v>
       </c>
       <c r="O5">
-        <v>127500000</v>
+        <v>68700000</v>
       </c>
       <c r="P5">
-        <v>468900000</v>
+        <v>1769700000</v>
       </c>
       <c r="Q5">
-        <v>198800000</v>
+        <v>766600000</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1895,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>52900000</v>
+        <v>103600000</v>
       </c>
       <c r="X5">
-        <v>251700000</v>
+        <v>870200000</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>720600000</v>
+        <v>2639900000</v>
       </c>
       <c r="AA5">
-        <v>42000000</v>
+        <v>187500000</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1919,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>116800000</v>
+        <v>259400000</v>
       </c>
       <c r="AF5">
-        <v>158800000</v>
+        <v>446900000</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1946,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>158800000</v>
+        <v>446900000</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1955,37 +1919,37 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>455600000</v>
+        <v>1536100000</v>
       </c>
       <c r="AR5">
-        <v>-49800000</v>
+        <v>-210600000</v>
       </c>
       <c r="AS5">
-        <v>156000000</v>
+        <v>867500000</v>
       </c>
       <c r="AT5">
-        <v>561800000</v>
+        <v>2193000000</v>
       </c>
       <c r="AU5">
-        <v>561800000</v>
+        <v>2193000000</v>
       </c>
       <c r="AV5">
-        <v>720600000</v>
+        <v>2639900000</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>720600000</v>
+        <v>2639900000</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>25400000</v>
+        <v>8300000</v>
       </c>
       <c r="BA5">
-        <v>-167000000</v>
+        <v>-783100000</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1993,52 +1957,52 @@
         <v>59</v>
       </c>
       <c r="B6" s="2">
-        <v>33054</v>
+        <v>34150</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J6">
-        <v>246300000</v>
+        <v>1013000000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>246300000</v>
+        <v>1013000000</v>
       </c>
       <c r="M6">
-        <v>181000000</v>
+        <v>338000000</v>
       </c>
       <c r="N6">
-        <v>55600000</v>
+        <v>127000000</v>
       </c>
       <c r="O6">
-        <v>237000000</v>
+        <v>1372000000</v>
       </c>
       <c r="P6">
-        <v>719900000</v>
+        <v>2850000000</v>
       </c>
       <c r="Q6">
-        <v>325400000</v>
+        <v>867000000</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2056,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>60000000</v>
+        <v>88000000</v>
       </c>
       <c r="X6">
-        <v>385400000</v>
+        <v>955000000</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1105300000</v>
+        <v>3805000000</v>
       </c>
       <c r="AA6">
-        <v>51000000</v>
+        <v>239000000</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -2080,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>135800000</v>
+        <v>324000000</v>
       </c>
       <c r="AF6">
-        <v>186800000</v>
+        <v>563000000</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2095,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -2107,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>186700000</v>
+        <v>563000000</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -2116,37 +2080,37 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>688900000</v>
+        <v>2156000000</v>
       </c>
       <c r="AR6">
-        <v>-73900000</v>
+        <v>-314000000</v>
       </c>
       <c r="AS6">
-        <v>303600000</v>
+        <v>1400000000</v>
       </c>
       <c r="AT6">
-        <v>918600000</v>
+        <v>3242000000</v>
       </c>
       <c r="AU6">
-        <v>918600000</v>
+        <v>3242000000</v>
       </c>
       <c r="AV6">
-        <v>1105300000</v>
+        <v>3805000000</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>1105300000</v>
+        <v>3805000000</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>-239800000</v>
+        <v>-1013000000</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -2154,52 +2118,52 @@
         <v>60</v>
       </c>
       <c r="B7" s="2">
-        <v>33419</v>
+        <v>34515</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J7">
-        <v>417200000</v>
+        <v>1477000000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>417200000</v>
+        <v>1477000000</v>
       </c>
       <c r="M7">
-        <v>243300000</v>
+        <v>475000000</v>
       </c>
       <c r="N7">
-        <v>47100000</v>
+        <v>102000000</v>
       </c>
       <c r="O7">
-        <v>320900000</v>
+        <v>2258000000</v>
       </c>
       <c r="P7">
-        <v>1028500000</v>
+        <v>4312000000</v>
       </c>
       <c r="Q7">
-        <v>530200000</v>
+        <v>930000000</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2217,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>85500000</v>
+        <v>121000000</v>
       </c>
       <c r="X7">
-        <v>615700000</v>
+        <v>1051000000</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1644200000</v>
+        <v>5363000000</v>
       </c>
       <c r="AA7">
-        <v>85900000</v>
+        <v>324000000</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2241,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>207500000</v>
+        <v>589000000</v>
       </c>
       <c r="AF7">
-        <v>293400000</v>
+        <v>913000000</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2268,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>293400000</v>
+        <v>913000000</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -2277,37 +2241,43 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>956300000</v>
+        <v>2950000000</v>
       </c>
       <c r="AR7">
-        <v>-118500000</v>
+        <v>-515000000</v>
       </c>
       <c r="AS7">
-        <v>513000000</v>
+        <v>2015000000</v>
       </c>
       <c r="AT7">
-        <v>1350800000</v>
+        <v>4450000000</v>
       </c>
       <c r="AU7">
-        <v>1350800000</v>
+        <v>4450000000</v>
       </c>
       <c r="AV7">
-        <v>1644200000</v>
+        <v>5363000000</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>1644200000</v>
+        <v>5363000000</v>
       </c>
       <c r="AY7">
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>19500000</v>
+        <v>0</v>
       </c>
       <c r="BA7">
-        <v>-397700000</v>
+        <v>-1477000000</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -2315,52 +2285,52 @@
         <v>61</v>
       </c>
       <c r="B8" s="2">
-        <v>33785</v>
+        <v>34880</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J8">
-        <v>791400000</v>
+        <v>1962000000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>791400000</v>
+        <v>1962000000</v>
       </c>
       <c r="M8">
-        <v>823700000</v>
+        <v>581000000</v>
       </c>
       <c r="N8">
-        <v>85900000</v>
+        <v>88000000</v>
       </c>
       <c r="O8">
-        <v>68700000</v>
+        <v>2989000000</v>
       </c>
       <c r="P8">
-        <v>1769700000</v>
+        <v>5620000000</v>
       </c>
       <c r="Q8">
-        <v>766600000</v>
+        <v>1192000000</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2378,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>103600000</v>
+        <v>398000000</v>
       </c>
       <c r="X8">
-        <v>870200000</v>
+        <v>1590000000</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2639900000</v>
+        <v>7210000000</v>
       </c>
       <c r="AA8">
-        <v>187500000</v>
+        <v>563000000</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2402,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>259400000</v>
+        <v>784000000</v>
       </c>
       <c r="AF8">
-        <v>446900000</v>
+        <v>1347000000</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -2417,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>405000000</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>405000000</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2429,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>446900000</v>
+        <v>1752000000</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2438,37 +2408,43 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1536100000</v>
+        <v>3328000000</v>
       </c>
       <c r="AR8">
-        <v>-210600000</v>
+        <v>-715000000</v>
       </c>
       <c r="AS8">
-        <v>867500000</v>
+        <v>2720000000</v>
       </c>
       <c r="AT8">
-        <v>2193000000</v>
+        <v>5333000000</v>
       </c>
       <c r="AU8">
-        <v>2193000000</v>
+        <v>5333000000</v>
       </c>
       <c r="AV8">
-        <v>2639900000</v>
+        <v>7085000000</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>2639900000</v>
+        <v>7085000000</v>
       </c>
       <c r="AY8">
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>8300000</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>-783100000</v>
+        <v>-1962000000</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2476,52 +2452,52 @@
         <v>62</v>
       </c>
       <c r="B9" s="2">
-        <v>34150</v>
+        <v>35246</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J9">
-        <v>1013000000</v>
+        <v>2601000000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1013000000</v>
+        <v>2601000000</v>
       </c>
       <c r="M9">
-        <v>338000000</v>
+        <v>639000000</v>
       </c>
       <c r="N9">
-        <v>127000000</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1372000000</v>
+        <v>4599000000</v>
       </c>
       <c r="P9">
-        <v>2850000000</v>
+        <v>7839000000</v>
       </c>
       <c r="Q9">
-        <v>867000000</v>
+        <v>1326000000</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2539,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>88000000</v>
+        <v>928000000</v>
       </c>
       <c r="X9">
-        <v>955000000</v>
+        <v>2254000000</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3805000000</v>
+        <v>10093000000</v>
       </c>
       <c r="AA9">
-        <v>239000000</v>
+        <v>808000000</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2563,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>324000000</v>
+        <v>1617000000</v>
       </c>
       <c r="AF9">
-        <v>563000000</v>
+        <v>2425000000</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2578,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>635000000</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>635000000</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2590,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>563000000</v>
+        <v>3060000000</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2599,28 +2575,28 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>2156000000</v>
+        <v>3984000000</v>
       </c>
       <c r="AR9">
-        <v>-314000000</v>
+        <v>-1020000000</v>
       </c>
       <c r="AS9">
-        <v>1400000000</v>
+        <v>3944000000</v>
       </c>
       <c r="AT9">
-        <v>3242000000</v>
+        <v>6908000000</v>
       </c>
       <c r="AU9">
-        <v>3242000000</v>
+        <v>6908000000</v>
       </c>
       <c r="AV9">
-        <v>3805000000</v>
+        <v>9968000000</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>3805000000</v>
+        <v>9968000000</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -2629,7 +2605,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>-1013000000</v>
+        <v>-2601000000</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2637,52 +2619,52 @@
         <v>63</v>
       </c>
       <c r="B10" s="2">
-        <v>34515</v>
+        <v>35611</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J10">
-        <v>1477000000</v>
+        <v>3706000000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1477000000</v>
+        <v>3706000000</v>
       </c>
       <c r="M10">
-        <v>475000000</v>
+        <v>980000000</v>
       </c>
       <c r="N10">
-        <v>102000000</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2258000000</v>
+        <v>5687000000</v>
       </c>
       <c r="P10">
-        <v>4312000000</v>
+        <v>10373000000</v>
       </c>
       <c r="Q10">
-        <v>930000000</v>
+        <v>1465000000</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2700,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>121000000</v>
+        <v>2549000000</v>
       </c>
       <c r="X10">
-        <v>1051000000</v>
+        <v>4014000000</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>5363000000</v>
+        <v>14387000000</v>
       </c>
       <c r="AA10">
-        <v>324000000</v>
+        <v>721000000</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2724,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>589000000</v>
+        <v>2889000000</v>
       </c>
       <c r="AF10">
-        <v>913000000</v>
+        <v>3610000000</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2751,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>913000000</v>
+        <v>3610000000</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2760,28 +2742,28 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>2950000000</v>
+        <v>5288000000</v>
       </c>
       <c r="AR10">
-        <v>-515000000</v>
+        <v>-1312000000</v>
       </c>
       <c r="AS10">
-        <v>2015000000</v>
+        <v>6801000000</v>
       </c>
       <c r="AT10">
-        <v>4450000000</v>
+        <v>10777000000</v>
       </c>
       <c r="AU10">
-        <v>4450000000</v>
+        <v>10777000000</v>
       </c>
       <c r="AV10">
-        <v>5363000000</v>
+        <v>14387000000</v>
       </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>5363000000</v>
+        <v>14387000000</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -2790,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>-1477000000</v>
+        <v>-3706000000</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2804,52 +2786,52 @@
         <v>64</v>
       </c>
       <c r="B11" s="2">
-        <v>34880</v>
+        <v>35976</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J11">
-        <v>1962000000</v>
+        <v>3839000000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1962000000</v>
+        <v>3839000000</v>
       </c>
       <c r="M11">
-        <v>581000000</v>
+        <v>1460000000</v>
       </c>
       <c r="N11">
-        <v>88000000</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2989000000</v>
+        <v>10590000000</v>
       </c>
       <c r="P11">
-        <v>5620000000</v>
+        <v>15889000000</v>
       </c>
       <c r="Q11">
-        <v>1192000000</v>
+        <v>1505000000</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2867,19 +2849,19 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>398000000</v>
+        <v>4963000000</v>
       </c>
       <c r="X11">
-        <v>1590000000</v>
+        <v>6468000000</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>7210000000</v>
+        <v>22357000000</v>
       </c>
       <c r="AA11">
-        <v>563000000</v>
+        <v>759000000</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2891,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>784000000</v>
+        <v>4971000000</v>
       </c>
       <c r="AF11">
-        <v>1347000000</v>
+        <v>5730000000</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2906,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>405000000</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>405000000</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2918,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>1752000000</v>
+        <v>5730000000</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2927,28 +2909,28 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>3328000000</v>
+        <v>7622000000</v>
       </c>
       <c r="AR11">
-        <v>-715000000</v>
+        <v>-1547000000</v>
       </c>
       <c r="AS11">
-        <v>2720000000</v>
+        <v>10552000000</v>
       </c>
       <c r="AT11">
-        <v>5333000000</v>
+        <v>16627000000</v>
       </c>
       <c r="AU11">
-        <v>5333000000</v>
+        <v>16627000000</v>
       </c>
       <c r="AV11">
-        <v>7085000000</v>
+        <v>22357000000</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>7085000000</v>
+        <v>22357000000</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -2957,13 +2939,7 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>-1962000000</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>235</v>
+        <v>-3839000000</v>
       </c>
     </row>
     <row r="12" spans="1:55">
@@ -2971,52 +2947,52 @@
         <v>65</v>
       </c>
       <c r="B12" s="2">
-        <v>35246</v>
+        <v>36341</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J12">
-        <v>2601000000</v>
+        <v>4975000000</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12261000000</v>
       </c>
       <c r="L12">
-        <v>2601000000</v>
+        <v>17236000000</v>
       </c>
       <c r="M12">
-        <v>639000000</v>
+        <v>2245000000</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4599000000</v>
+        <v>752000000</v>
       </c>
       <c r="P12">
-        <v>7839000000</v>
+        <v>20233000000</v>
       </c>
       <c r="Q12">
-        <v>1326000000</v>
+        <v>1611000000</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -3034,19 +3010,19 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>928000000</v>
+        <v>15312000000</v>
       </c>
       <c r="X12">
-        <v>2254000000</v>
+        <v>16923000000</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>10093000000</v>
+        <v>37156000000</v>
       </c>
       <c r="AA12">
-        <v>808000000</v>
+        <v>874000000</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3058,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>1617000000</v>
+        <v>7844000000</v>
       </c>
       <c r="AF12">
-        <v>2425000000</v>
+        <v>8718000000</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -3073,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>635000000</v>
+        <v>1385000000</v>
       </c>
       <c r="AK12">
-        <v>635000000</v>
+        <v>1385000000</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -3085,37 +3061,37 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>3060000000</v>
+        <v>8718000000</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>13844000000</v>
       </c>
       <c r="AQ12">
-        <v>3984000000</v>
+        <v>13614000000</v>
       </c>
       <c r="AR12">
-        <v>-1020000000</v>
+        <v>-1905000000</v>
       </c>
       <c r="AS12">
-        <v>3944000000</v>
+        <v>2885000000</v>
       </c>
       <c r="AT12">
-        <v>6908000000</v>
+        <v>28438000000</v>
       </c>
       <c r="AU12">
-        <v>6908000000</v>
+        <v>28438000000</v>
       </c>
       <c r="AV12">
-        <v>9968000000</v>
+        <v>37156000000</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>9968000000</v>
+        <v>37156000000</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -3124,13 +3100,7 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>-2601000000</v>
-      </c>
-      <c r="BB12" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="BC12" s="3" t="s">
-        <v>236</v>
+        <v>-4975000000</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -3138,52 +3108,52 @@
         <v>66</v>
       </c>
       <c r="B13" s="2">
-        <v>35611</v>
+        <v>36707</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J13">
-        <v>3706000000</v>
+        <v>4846000000</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18952000000</v>
       </c>
       <c r="L13">
-        <v>3706000000</v>
+        <v>23798000000</v>
       </c>
       <c r="M13">
-        <v>980000000</v>
+        <v>3250000000</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5687000000</v>
+        <v>3260000000</v>
       </c>
       <c r="P13">
-        <v>10373000000</v>
+        <v>30308000000</v>
       </c>
       <c r="Q13">
-        <v>1465000000</v>
+        <v>1903000000</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -3201,19 +3171,19 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>2549000000</v>
+        <v>19939000000</v>
       </c>
       <c r="X13">
-        <v>4014000000</v>
+        <v>21842000000</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>14387000000</v>
+        <v>52150000000</v>
       </c>
       <c r="AA13">
-        <v>721000000</v>
+        <v>1083000000</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3225,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>2889000000</v>
+        <v>8672000000</v>
       </c>
       <c r="AF13">
-        <v>3610000000</v>
+        <v>9755000000</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -3237,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1027000000</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1027000000</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -3252,37 +3222,37 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>3610000000</v>
+        <v>10782000000</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>23195000000</v>
       </c>
       <c r="AQ13">
-        <v>5288000000</v>
+        <v>18173000000</v>
       </c>
       <c r="AR13">
-        <v>-1312000000</v>
+        <v>-2411000000</v>
       </c>
       <c r="AS13">
-        <v>6801000000</v>
+        <v>2411000000</v>
       </c>
       <c r="AT13">
-        <v>10777000000</v>
+        <v>41368000000</v>
       </c>
       <c r="AU13">
-        <v>10777000000</v>
+        <v>41368000000</v>
       </c>
       <c r="AV13">
-        <v>14387000000</v>
+        <v>52150000000</v>
       </c>
       <c r="AW13">
         <v>0</v>
       </c>
       <c r="AX13">
-        <v>14387000000</v>
+        <v>52150000000</v>
       </c>
       <c r="AY13">
         <v>0</v>
@@ -3291,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>-3706000000</v>
+        <v>-4846000000</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -3305,52 +3275,52 @@
         <v>67</v>
       </c>
       <c r="B14" s="2">
-        <v>35976</v>
+        <v>37072</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J14">
-        <v>3839000000</v>
+        <v>3922000000</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27678000000</v>
       </c>
       <c r="L14">
-        <v>3839000000</v>
+        <v>31600000000</v>
       </c>
       <c r="M14">
-        <v>1460000000</v>
+        <v>3671000000</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10590000000</v>
+        <v>4366000000</v>
       </c>
       <c r="P14">
-        <v>15889000000</v>
+        <v>39637000000</v>
       </c>
       <c r="Q14">
-        <v>1505000000</v>
+        <v>2309000000</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -3368,19 +3338,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>4963000000</v>
+        <v>17311000000</v>
       </c>
       <c r="X14">
-        <v>6468000000</v>
+        <v>19620000000</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>22357000000</v>
+        <v>59257000000</v>
       </c>
       <c r="AA14">
-        <v>759000000</v>
+        <v>1188000000</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3389,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>5614000000</v>
       </c>
       <c r="AE14">
-        <v>4971000000</v>
+        <v>4330000000</v>
       </c>
       <c r="AF14">
-        <v>5730000000</v>
+        <v>11132000000</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -3404,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>836000000</v>
       </c>
       <c r="AJ14">
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>836000000</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -3419,37 +3389,37 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>5730000000</v>
+        <v>11968000000</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>28390000000</v>
       </c>
       <c r="AQ14">
-        <v>7622000000</v>
+        <v>18899000000</v>
       </c>
       <c r="AR14">
-        <v>-1547000000</v>
+        <v>-2966000000</v>
       </c>
       <c r="AS14">
-        <v>10552000000</v>
+        <v>2966000000</v>
       </c>
       <c r="AT14">
-        <v>16627000000</v>
+        <v>47289000000</v>
       </c>
       <c r="AU14">
-        <v>16627000000</v>
+        <v>47289000000</v>
       </c>
       <c r="AV14">
-        <v>22357000000</v>
+        <v>59257000000</v>
       </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>22357000000</v>
+        <v>59257000000</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3458,7 +3428,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>-3839000000</v>
+        <v>-3922000000</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:55">
@@ -3466,61 +3442,61 @@
         <v>68</v>
       </c>
       <c r="B15" s="2">
-        <v>36341</v>
+        <v>37437</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J15">
-        <v>4975000000</v>
+        <v>3016000000</v>
       </c>
       <c r="K15">
-        <v>12261000000</v>
+        <v>35636000000</v>
       </c>
       <c r="L15">
-        <v>17236000000</v>
+        <v>38652000000</v>
       </c>
       <c r="M15">
-        <v>2245000000</v>
+        <v>5129000000</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>673000000</v>
       </c>
       <c r="O15">
-        <v>752000000</v>
+        <v>4122000000</v>
       </c>
       <c r="P15">
-        <v>20233000000</v>
+        <v>48576000000</v>
       </c>
       <c r="Q15">
-        <v>1611000000</v>
+        <v>2268000000</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1669000000</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1669000000</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -3529,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>15312000000</v>
+        <v>15133000000</v>
       </c>
       <c r="X15">
-        <v>16923000000</v>
+        <v>19070000000</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>37156000000</v>
+        <v>67646000000</v>
       </c>
       <c r="AA15">
-        <v>874000000</v>
+        <v>1208000000</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3550,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>5920000000</v>
       </c>
       <c r="AE15">
-        <v>7844000000</v>
+        <v>5616000000</v>
       </c>
       <c r="AF15">
-        <v>8718000000</v>
+        <v>12744000000</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -3565,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>398000000</v>
       </c>
       <c r="AJ15">
-        <v>1385000000</v>
+        <v>2324000000</v>
       </c>
       <c r="AK15">
-        <v>1385000000</v>
+        <v>2722000000</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -3580,37 +3556,37 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>8718000000</v>
+        <v>15466000000</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>13844000000</v>
+        <v>31647000000</v>
       </c>
       <c r="AQ15">
-        <v>13614000000</v>
+        <v>20533000000</v>
       </c>
       <c r="AR15">
-        <v>-1905000000</v>
+        <v>-3623000000</v>
       </c>
       <c r="AS15">
-        <v>2885000000</v>
+        <v>3623000000</v>
       </c>
       <c r="AT15">
-        <v>28438000000</v>
+        <v>52180000000</v>
       </c>
       <c r="AU15">
-        <v>28438000000</v>
+        <v>52180000000</v>
       </c>
       <c r="AV15">
-        <v>37156000000</v>
+        <v>67646000000</v>
       </c>
       <c r="AW15">
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>37156000000</v>
+        <v>67646000000</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -3619,7 +3595,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>-4975000000</v>
+        <v>-3016000000</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:55">
@@ -3627,61 +3609,61 @@
         <v>69</v>
       </c>
       <c r="B16" s="2">
-        <v>36707</v>
+        <v>37802</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I16" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J16">
-        <v>4846000000</v>
+        <v>6438000000</v>
       </c>
       <c r="K16">
-        <v>18952000000</v>
+        <v>42610000000</v>
       </c>
       <c r="L16">
-        <v>23798000000</v>
+        <v>49048000000</v>
       </c>
       <c r="M16">
-        <v>3250000000</v>
+        <v>5196000000</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>640000000</v>
       </c>
       <c r="O16">
-        <v>3260000000</v>
+        <v>4089000000</v>
       </c>
       <c r="P16">
-        <v>30308000000</v>
+        <v>58973000000</v>
       </c>
       <c r="Q16">
-        <v>1903000000</v>
+        <v>2223000000</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>3512000000</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>3512000000</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -3690,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>19939000000</v>
+        <v>14863000000</v>
       </c>
       <c r="X16">
-        <v>21842000000</v>
+        <v>20598000000</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>52150000000</v>
+        <v>79571000000</v>
       </c>
       <c r="AA16">
-        <v>1083000000</v>
+        <v>1573000000</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3711,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>7225000000</v>
       </c>
       <c r="AE16">
-        <v>8672000000</v>
+        <v>5176000000</v>
       </c>
       <c r="AF16">
-        <v>9755000000</v>
+        <v>13974000000</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -3726,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>1027000000</v>
+        <v>1731000000</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>2846000000</v>
       </c>
       <c r="AK16">
-        <v>1027000000</v>
+        <v>4577000000</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3741,37 +3723,37 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>10782000000</v>
+        <v>18551000000</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>23195000000</v>
+        <v>35344000000</v>
       </c>
       <c r="AQ16">
-        <v>18173000000</v>
+        <v>25676000000</v>
       </c>
       <c r="AR16">
-        <v>-2411000000</v>
+        <v>-3855000000</v>
       </c>
       <c r="AS16">
-        <v>2411000000</v>
+        <v>3855000000</v>
       </c>
       <c r="AT16">
-        <v>41368000000</v>
+        <v>61020000000</v>
       </c>
       <c r="AU16">
-        <v>41368000000</v>
+        <v>61020000000</v>
       </c>
       <c r="AV16">
-        <v>52150000000</v>
+        <v>79571000000</v>
       </c>
       <c r="AW16">
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>52150000000</v>
+        <v>79571000000</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -3780,13 +3762,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>-4846000000</v>
+        <v>-6438000000</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:55">
@@ -3794,82 +3776,82 @@
         <v>70</v>
       </c>
       <c r="B17" s="2">
-        <v>37072</v>
+        <v>38168</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J17">
-        <v>3922000000</v>
+        <v>15982000000</v>
       </c>
       <c r="K17">
-        <v>27678000000</v>
+        <v>44610000000</v>
       </c>
       <c r="L17">
-        <v>31600000000</v>
+        <v>60592000000</v>
       </c>
       <c r="M17">
-        <v>3671000000</v>
+        <v>5890000000</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>421000000</v>
       </c>
       <c r="O17">
-        <v>4366000000</v>
+        <v>3663000000</v>
       </c>
       <c r="P17">
-        <v>39637000000</v>
+        <v>70566000000</v>
       </c>
       <c r="Q17">
-        <v>2309000000</v>
+        <v>2326000000</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3684000000</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>3684000000</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1829000000</v>
       </c>
       <c r="W17">
-        <v>17311000000</v>
+        <v>13984000000</v>
       </c>
       <c r="X17">
-        <v>19620000000</v>
+        <v>21823000000</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>59257000000</v>
+        <v>92389000000</v>
       </c>
       <c r="AA17">
-        <v>1188000000</v>
+        <v>1717000000</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3878,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>5614000000</v>
+        <v>6514000000</v>
       </c>
       <c r="AE17">
-        <v>4330000000</v>
+        <v>6738000000</v>
       </c>
       <c r="AF17">
-        <v>11132000000</v>
+        <v>14969000000</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -3893,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>836000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>2595000000</v>
       </c>
       <c r="AK17">
-        <v>836000000</v>
+        <v>2595000000</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3908,37 +3890,37 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>11968000000</v>
+        <v>17564000000</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>28390000000</v>
+        <v>56396000000</v>
       </c>
       <c r="AQ17">
-        <v>18899000000</v>
+        <v>18429000000</v>
       </c>
       <c r="AR17">
-        <v>-2966000000</v>
+        <v>-4163000000</v>
       </c>
       <c r="AS17">
-        <v>2966000000</v>
+        <v>4163000000</v>
       </c>
       <c r="AT17">
-        <v>47289000000</v>
+        <v>74825000000</v>
       </c>
       <c r="AU17">
-        <v>47289000000</v>
+        <v>74825000000</v>
       </c>
       <c r="AV17">
-        <v>59257000000</v>
+        <v>92389000000</v>
       </c>
       <c r="AW17">
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>59257000000</v>
+        <v>92389000000</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -3947,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>-3922000000</v>
+        <v>-15982000000</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="BC17" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:55">
@@ -3961,82 +3943,82 @@
         <v>71</v>
       </c>
       <c r="B18" s="2">
-        <v>37437</v>
+        <v>38533</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J18">
-        <v>3016000000</v>
+        <v>4851000000</v>
       </c>
       <c r="K18">
-        <v>35636000000</v>
+        <v>32900000000</v>
       </c>
       <c r="L18">
-        <v>38652000000</v>
+        <v>37751000000</v>
       </c>
       <c r="M18">
-        <v>5129000000</v>
+        <v>7180000000</v>
       </c>
       <c r="N18">
-        <v>673000000</v>
+        <v>491000000</v>
       </c>
       <c r="O18">
-        <v>4122000000</v>
+        <v>3315000000</v>
       </c>
       <c r="P18">
-        <v>48576000000</v>
+        <v>48737000000</v>
       </c>
       <c r="Q18">
-        <v>2268000000</v>
+        <v>2346000000</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1669000000</v>
+        <v>3808000000</v>
       </c>
       <c r="T18">
-        <v>1669000000</v>
+        <v>3808000000</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>3621000000</v>
       </c>
       <c r="W18">
-        <v>15133000000</v>
+        <v>12303000000</v>
       </c>
       <c r="X18">
-        <v>19070000000</v>
+        <v>22078000000</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>67646000000</v>
+        <v>70815000000</v>
       </c>
       <c r="AA18">
-        <v>1208000000</v>
+        <v>2086000000</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -4045,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>5920000000</v>
+        <v>7502000000</v>
       </c>
       <c r="AE18">
-        <v>5616000000</v>
+        <v>7289000000</v>
       </c>
       <c r="AF18">
-        <v>12744000000</v>
+        <v>16877000000</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -4060,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>398000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>2324000000</v>
+        <v>5823000000</v>
       </c>
       <c r="AK18">
-        <v>2722000000</v>
+        <v>5823000000</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -4075,37 +4057,37 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>15466000000</v>
+        <v>22700000000</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>31647000000</v>
+        <v>60413000000</v>
       </c>
       <c r="AQ18">
-        <v>20533000000</v>
+        <v>-13724000000</v>
       </c>
       <c r="AR18">
-        <v>-3623000000</v>
+        <v>1426000000</v>
       </c>
       <c r="AS18">
-        <v>3623000000</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>52180000000</v>
+        <v>48115000000</v>
       </c>
       <c r="AU18">
-        <v>52180000000</v>
+        <v>48115000000</v>
       </c>
       <c r="AV18">
-        <v>67646000000</v>
+        <v>70815000000</v>
       </c>
       <c r="AW18">
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>67646000000</v>
+        <v>70815000000</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -4114,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>-3016000000</v>
+        <v>-4851000000</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:55">
@@ -4128,82 +4110,82 @@
         <v>72</v>
       </c>
       <c r="B19" s="2">
-        <v>37802</v>
+        <v>38898</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J19">
-        <v>6438000000</v>
+        <v>6714000000</v>
       </c>
       <c r="K19">
-        <v>42610000000</v>
+        <v>27447000000</v>
       </c>
       <c r="L19">
-        <v>49048000000</v>
+        <v>34161000000</v>
       </c>
       <c r="M19">
-        <v>5196000000</v>
+        <v>9316000000</v>
       </c>
       <c r="N19">
-        <v>640000000</v>
+        <v>1478000000</v>
       </c>
       <c r="O19">
-        <v>4089000000</v>
+        <v>4055000000</v>
       </c>
       <c r="P19">
-        <v>58973000000</v>
+        <v>49010000000</v>
       </c>
       <c r="Q19">
-        <v>2223000000</v>
+        <v>3044000000</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>3866000000</v>
       </c>
       <c r="S19">
-        <v>3512000000</v>
+        <v>539000000</v>
       </c>
       <c r="T19">
-        <v>3512000000</v>
+        <v>4405000000</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2611000000</v>
       </c>
       <c r="W19">
-        <v>14863000000</v>
+        <v>10527000000</v>
       </c>
       <c r="X19">
-        <v>20598000000</v>
+        <v>20587000000</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>79571000000</v>
+        <v>69597000000</v>
       </c>
       <c r="AA19">
-        <v>1573000000</v>
+        <v>2909000000</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -4212,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>7225000000</v>
+        <v>9138000000</v>
       </c>
       <c r="AE19">
-        <v>5176000000</v>
+        <v>10395000000</v>
       </c>
       <c r="AF19">
-        <v>13974000000</v>
+        <v>22442000000</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -4227,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1731000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>2846000000</v>
+        <v>7051000000</v>
       </c>
       <c r="AK19">
-        <v>4577000000</v>
+        <v>7051000000</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -4242,37 +4224,37 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>18551000000</v>
+        <v>29493000000</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>35344000000</v>
+        <v>59005000000</v>
       </c>
       <c r="AQ19">
-        <v>25676000000</v>
+        <v>-20130000000</v>
       </c>
       <c r="AR19">
-        <v>-3855000000</v>
+        <v>1229000000</v>
       </c>
       <c r="AS19">
-        <v>3855000000</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>61020000000</v>
+        <v>40104000000</v>
       </c>
       <c r="AU19">
-        <v>61020000000</v>
+        <v>40104000000</v>
       </c>
       <c r="AV19">
-        <v>79571000000</v>
+        <v>69597000000</v>
       </c>
       <c r="AW19">
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>79571000000</v>
+        <v>69597000000</v>
       </c>
       <c r="AY19">
         <v>0</v>
@@ -4281,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>-6438000000</v>
+        <v>-6714000000</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="BC19" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:55">
@@ -4295,166 +4277,166 @@
         <v>73</v>
       </c>
       <c r="B20" s="2">
-        <v>38168</v>
+        <v>39263</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20">
+        <v>6111000000</v>
+      </c>
+      <c r="K20">
+        <v>17300000000</v>
+      </c>
+      <c r="L20">
+        <v>23411000000</v>
+      </c>
+      <c r="M20">
+        <v>11338000000</v>
+      </c>
+      <c r="N20">
+        <v>1127000000</v>
+      </c>
+      <c r="O20">
+        <v>4292000000</v>
+      </c>
+      <c r="P20">
+        <v>40168000000</v>
+      </c>
+      <c r="Q20">
+        <v>4350000000</v>
+      </c>
+      <c r="R20">
+        <v>4760000000</v>
+      </c>
+      <c r="S20">
+        <v>878000000</v>
+      </c>
+      <c r="T20">
+        <v>5638000000</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1389000000</v>
+      </c>
+      <c r="W20">
+        <v>11626000000</v>
+      </c>
+      <c r="X20">
+        <v>23003000000</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>63171000000</v>
+      </c>
+      <c r="AA20">
+        <v>3247000000</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>10779000000</v>
+      </c>
+      <c r="AE20">
+        <v>9728000000</v>
+      </c>
+      <c r="AF20">
+        <v>23754000000</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>8320000000</v>
+      </c>
+      <c r="AK20">
+        <v>8320000000</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>32074000000</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>60557000000</v>
+      </c>
+      <c r="AQ20">
+        <v>-31114000000</v>
+      </c>
+      <c r="AR20">
+        <v>1654000000</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>31097000000</v>
+      </c>
+      <c r="AU20">
+        <v>31097000000</v>
+      </c>
+      <c r="AV20">
+        <v>63171000000</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>63171000000</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>-6111000000</v>
+      </c>
+      <c r="BB20" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J20">
-        <v>15982000000</v>
-      </c>
-      <c r="K20">
-        <v>44610000000</v>
-      </c>
-      <c r="L20">
-        <v>60592000000</v>
-      </c>
-      <c r="M20">
-        <v>5890000000</v>
-      </c>
-      <c r="N20">
-        <v>421000000</v>
-      </c>
-      <c r="O20">
-        <v>3663000000</v>
-      </c>
-      <c r="P20">
-        <v>70566000000</v>
-      </c>
-      <c r="Q20">
-        <v>2326000000</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>3684000000</v>
-      </c>
-      <c r="T20">
-        <v>3684000000</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>1829000000</v>
-      </c>
-      <c r="W20">
-        <v>13984000000</v>
-      </c>
-      <c r="X20">
-        <v>21823000000</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>92389000000</v>
-      </c>
-      <c r="AA20">
-        <v>1717000000</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>6514000000</v>
-      </c>
-      <c r="AE20">
-        <v>6738000000</v>
-      </c>
-      <c r="AF20">
-        <v>14969000000</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>2595000000</v>
-      </c>
-      <c r="AK20">
-        <v>2595000000</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>17564000000</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>56396000000</v>
-      </c>
-      <c r="AQ20">
-        <v>18429000000</v>
-      </c>
-      <c r="AR20">
-        <v>-4163000000</v>
-      </c>
-      <c r="AS20">
-        <v>4163000000</v>
-      </c>
-      <c r="AT20">
-        <v>74825000000</v>
-      </c>
-      <c r="AU20">
-        <v>74825000000</v>
-      </c>
-      <c r="AV20">
-        <v>92389000000</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>92389000000</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>-15982000000</v>
-      </c>
-      <c r="BB20" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="BC20" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:55">
@@ -4462,112 +4444,112 @@
         <v>74</v>
       </c>
       <c r="B21" s="2">
-        <v>38533</v>
+        <v>39629</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J21">
-        <v>4851000000</v>
+        <v>10339000000</v>
       </c>
       <c r="K21">
-        <v>32900000000</v>
+        <v>13323000000</v>
       </c>
       <c r="L21">
-        <v>37751000000</v>
+        <v>23662000000</v>
       </c>
       <c r="M21">
-        <v>7180000000</v>
+        <v>13589000000</v>
       </c>
       <c r="N21">
-        <v>491000000</v>
+        <v>985000000</v>
       </c>
       <c r="O21">
-        <v>3315000000</v>
+        <v>5006000000</v>
       </c>
       <c r="P21">
-        <v>48737000000</v>
+        <v>43242000000</v>
       </c>
       <c r="Q21">
-        <v>2346000000</v>
+        <v>6242000000</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>12108000000</v>
       </c>
       <c r="S21">
-        <v>3808000000</v>
+        <v>1973000000</v>
       </c>
       <c r="T21">
-        <v>3808000000</v>
+        <v>14081000000</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>6588000000</v>
       </c>
       <c r="V21">
-        <v>3621000000</v>
+        <v>949000000</v>
       </c>
       <c r="W21">
-        <v>12303000000</v>
+        <v>1691000000</v>
       </c>
       <c r="X21">
-        <v>22078000000</v>
+        <v>29551000000</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>70815000000</v>
+        <v>72793000000</v>
       </c>
       <c r="AA21">
-        <v>2086000000</v>
+        <v>4034000000</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>3248000000</v>
       </c>
       <c r="AD21">
-        <v>7502000000</v>
+        <v>13397000000</v>
       </c>
       <c r="AE21">
-        <v>7289000000</v>
+        <v>9207000000</v>
       </c>
       <c r="AF21">
-        <v>16877000000</v>
+        <v>29886000000</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1900000000</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>5823000000</v>
+        <v>4721000000</v>
       </c>
       <c r="AK21">
-        <v>5823000000</v>
+        <v>6621000000</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -4576,52 +4558,52 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>22700000000</v>
+        <v>36507000000</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>60413000000</v>
+        <v>62849000000</v>
       </c>
       <c r="AQ21">
-        <v>-13724000000</v>
+        <v>-27703000000</v>
       </c>
       <c r="AR21">
-        <v>1426000000</v>
+        <v>1140000000</v>
       </c>
       <c r="AS21">
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>48115000000</v>
+        <v>36286000000</v>
       </c>
       <c r="AU21">
-        <v>48115000000</v>
+        <v>36286000000</v>
       </c>
       <c r="AV21">
-        <v>70815000000</v>
+        <v>72793000000</v>
       </c>
       <c r="AW21">
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>70815000000</v>
+        <v>72793000000</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>19911000000</v>
       </c>
       <c r="AZ21">
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>-4851000000</v>
+        <v>-10339000000</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:55">
@@ -4629,112 +4611,112 @@
         <v>75</v>
       </c>
       <c r="B22" s="2">
-        <v>38898</v>
+        <v>39994</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J22">
-        <v>6714000000</v>
+        <v>6076000000</v>
       </c>
       <c r="K22">
-        <v>27447000000</v>
+        <v>25371000000</v>
       </c>
       <c r="L22">
-        <v>34161000000</v>
+        <v>31447000000</v>
       </c>
       <c r="M22">
-        <v>9316000000</v>
+        <v>11192000000</v>
       </c>
       <c r="N22">
-        <v>1478000000</v>
+        <v>717000000</v>
       </c>
       <c r="O22">
-        <v>4055000000</v>
+        <v>5924000000</v>
       </c>
       <c r="P22">
-        <v>49010000000</v>
+        <v>49280000000</v>
       </c>
       <c r="Q22">
-        <v>3044000000</v>
+        <v>7535000000</v>
       </c>
       <c r="R22">
-        <v>3866000000</v>
+        <v>12503000000</v>
       </c>
       <c r="S22">
-        <v>539000000</v>
+        <v>1759000000</v>
       </c>
       <c r="T22">
-        <v>4405000000</v>
+        <v>14262000000</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>4933000000</v>
       </c>
       <c r="V22">
-        <v>2611000000</v>
+        <v>279000000</v>
       </c>
       <c r="W22">
-        <v>10527000000</v>
+        <v>1599000000</v>
       </c>
       <c r="X22">
-        <v>20587000000</v>
+        <v>28608000000</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>69597000000</v>
+        <v>77888000000</v>
       </c>
       <c r="AA22">
-        <v>2909000000</v>
+        <v>3324000000</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>2000000000</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>725000000</v>
       </c>
       <c r="AD22">
-        <v>9138000000</v>
+        <v>13003000000</v>
       </c>
       <c r="AE22">
-        <v>10395000000</v>
+        <v>7982000000</v>
       </c>
       <c r="AF22">
-        <v>22442000000</v>
+        <v>27034000000</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>3746000000</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1281000000</v>
       </c>
       <c r="AI22">
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>7051000000</v>
+        <v>6269000000</v>
       </c>
       <c r="AK22">
-        <v>7051000000</v>
+        <v>11296000000</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -4743,52 +4725,52 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>29493000000</v>
+        <v>38330000000</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>59005000000</v>
+        <v>62382000000</v>
       </c>
       <c r="AQ22">
-        <v>-20130000000</v>
+        <v>-23793000000</v>
       </c>
       <c r="AR22">
-        <v>1229000000</v>
+        <v>969000000</v>
       </c>
       <c r="AS22">
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>40104000000</v>
+        <v>39558000000</v>
       </c>
       <c r="AU22">
-        <v>40104000000</v>
+        <v>39558000000</v>
       </c>
       <c r="AV22">
-        <v>69597000000</v>
+        <v>77888000000</v>
       </c>
       <c r="AW22">
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>69597000000</v>
+        <v>77888000000</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>30304000000</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>5746000000</v>
       </c>
       <c r="BA22">
-        <v>-6714000000</v>
+        <v>-330000000</v>
       </c>
       <c r="BB22" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:55">
@@ -4796,112 +4778,112 @@
         <v>76</v>
       </c>
       <c r="B23" s="2">
-        <v>39263</v>
+        <v>40359</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J23">
-        <v>6111000000</v>
+        <v>5505000000</v>
       </c>
       <c r="K23">
-        <v>17300000000</v>
+        <v>31283000000</v>
       </c>
       <c r="L23">
-        <v>23411000000</v>
+        <v>36788000000</v>
       </c>
       <c r="M23">
-        <v>11338000000</v>
+        <v>13014000000</v>
       </c>
       <c r="N23">
-        <v>1127000000</v>
+        <v>740000000</v>
       </c>
       <c r="O23">
-        <v>4292000000</v>
+        <v>5134000000</v>
       </c>
       <c r="P23">
-        <v>40168000000</v>
+        <v>55676000000</v>
       </c>
       <c r="Q23">
-        <v>4350000000</v>
+        <v>7630000000</v>
       </c>
       <c r="R23">
-        <v>4760000000</v>
+        <v>12394000000</v>
       </c>
       <c r="S23">
-        <v>878000000</v>
+        <v>1158000000</v>
       </c>
       <c r="T23">
-        <v>5638000000</v>
+        <v>13552000000</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>7754000000</v>
       </c>
       <c r="V23">
-        <v>1389000000</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>11626000000</v>
+        <v>1501000000</v>
       </c>
       <c r="X23">
-        <v>23003000000</v>
+        <v>30437000000</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>63171000000</v>
+        <v>86113000000</v>
       </c>
       <c r="AA23">
-        <v>3247000000</v>
+        <v>4025000000</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1000000000</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1074000000</v>
       </c>
       <c r="AD23">
-        <v>10779000000</v>
+        <v>13652000000</v>
       </c>
       <c r="AE23">
-        <v>9728000000</v>
+        <v>6396000000</v>
       </c>
       <c r="AF23">
-        <v>23754000000</v>
+        <v>26147000000</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>4939000000</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1178000000</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>229000000</v>
       </c>
       <c r="AJ23">
-        <v>8320000000</v>
+        <v>7445000000</v>
       </c>
       <c r="AK23">
-        <v>8320000000</v>
+        <v>13791000000</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -4910,52 +4892,52 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>32074000000</v>
+        <v>39938000000</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>60557000000</v>
+        <v>62856000000</v>
       </c>
       <c r="AQ23">
-        <v>-31114000000</v>
+        <v>-16681000000</v>
       </c>
       <c r="AR23">
-        <v>1654000000</v>
+        <v>-8629000000</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>8629000000</v>
       </c>
       <c r="AT23">
-        <v>31097000000</v>
+        <v>46175000000</v>
       </c>
       <c r="AU23">
-        <v>31097000000</v>
+        <v>46175000000</v>
       </c>
       <c r="AV23">
-        <v>63171000000</v>
+        <v>86113000000</v>
       </c>
       <c r="AW23">
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>63171000000</v>
+        <v>86113000000</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>39037000000</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>5939000000</v>
       </c>
       <c r="BA23">
-        <v>-6111000000</v>
+        <v>434000000</v>
       </c>
       <c r="BB23" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BC23" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:55">
@@ -4963,112 +4945,112 @@
         <v>77</v>
       </c>
       <c r="B24" s="2">
-        <v>39629</v>
+        <v>40724</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J24">
-        <v>10339000000</v>
+        <v>9610000000</v>
       </c>
       <c r="K24">
-        <v>13323000000</v>
+        <v>43162000000</v>
       </c>
       <c r="L24">
-        <v>23662000000</v>
+        <v>52772000000</v>
       </c>
       <c r="M24">
-        <v>13589000000</v>
+        <v>14987000000</v>
       </c>
       <c r="N24">
-        <v>985000000</v>
+        <v>1372000000</v>
       </c>
       <c r="O24">
-        <v>5006000000</v>
+        <v>5787000000</v>
       </c>
       <c r="P24">
-        <v>43242000000</v>
+        <v>74918000000</v>
       </c>
       <c r="Q24">
-        <v>6242000000</v>
+        <v>8162000000</v>
       </c>
       <c r="R24">
-        <v>12108000000</v>
+        <v>12581000000</v>
       </c>
       <c r="S24">
-        <v>1973000000</v>
+        <v>744000000</v>
       </c>
       <c r="T24">
-        <v>14081000000</v>
+        <v>13325000000</v>
       </c>
       <c r="U24">
-        <v>6588000000</v>
+        <v>10865000000</v>
       </c>
       <c r="V24">
-        <v>949000000</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1691000000</v>
+        <v>1434000000</v>
       </c>
       <c r="X24">
-        <v>29551000000</v>
+        <v>33786000000</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>72793000000</v>
+        <v>108704000000</v>
       </c>
       <c r="AA24">
-        <v>4034000000</v>
+        <v>4197000000</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>3248000000</v>
+        <v>580000000</v>
       </c>
       <c r="AD24">
-        <v>13397000000</v>
+        <v>15722000000</v>
       </c>
       <c r="AE24">
-        <v>9207000000</v>
+        <v>8275000000</v>
       </c>
       <c r="AF24">
-        <v>29886000000</v>
+        <v>28774000000</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>11921000000</v>
       </c>
       <c r="AH24">
-        <v>1900000000</v>
+        <v>1398000000</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1456000000</v>
       </c>
       <c r="AJ24">
-        <v>4721000000</v>
+        <v>8072000000</v>
       </c>
       <c r="AK24">
-        <v>6621000000</v>
+        <v>22847000000</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -5077,52 +5059,52 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>36507000000</v>
+        <v>51621000000</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>62849000000</v>
+        <v>63415000000</v>
       </c>
       <c r="AQ24">
-        <v>-27703000000</v>
+        <v>-8195000000</v>
       </c>
       <c r="AR24">
-        <v>1140000000</v>
+        <v>1863000000</v>
       </c>
       <c r="AS24">
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>36286000000</v>
+        <v>57083000000</v>
       </c>
       <c r="AU24">
-        <v>36286000000</v>
+        <v>57083000000</v>
       </c>
       <c r="AV24">
-        <v>72793000000</v>
+        <v>108704000000</v>
       </c>
       <c r="AW24">
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>72793000000</v>
+        <v>108704000000</v>
       </c>
       <c r="AY24">
-        <v>19911000000</v>
+        <v>54027000000</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>11921000000</v>
       </c>
       <c r="BA24">
-        <v>-10339000000</v>
+        <v>2311000000</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:55">
@@ -5130,112 +5112,112 @@
         <v>78</v>
       </c>
       <c r="B25" s="2">
-        <v>39994</v>
+        <v>41090</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J25">
-        <v>6076000000</v>
+        <v>6938000000</v>
       </c>
       <c r="K25">
-        <v>25371000000</v>
+        <v>56102000000</v>
       </c>
       <c r="L25">
-        <v>31447000000</v>
+        <v>63040000000</v>
       </c>
       <c r="M25">
-        <v>11192000000</v>
+        <v>15780000000</v>
       </c>
       <c r="N25">
-        <v>717000000</v>
+        <v>1137000000</v>
       </c>
       <c r="O25">
-        <v>5924000000</v>
+        <v>5127000000</v>
       </c>
       <c r="P25">
-        <v>49280000000</v>
+        <v>85084000000</v>
       </c>
       <c r="Q25">
-        <v>7535000000</v>
+        <v>8269000000</v>
       </c>
       <c r="R25">
-        <v>12503000000</v>
+        <v>13452000000</v>
       </c>
       <c r="S25">
-        <v>1759000000</v>
+        <v>3170000000</v>
       </c>
       <c r="T25">
-        <v>14262000000</v>
+        <v>16622000000</v>
       </c>
       <c r="U25">
-        <v>4933000000</v>
+        <v>9776000000</v>
       </c>
       <c r="V25">
-        <v>279000000</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1599000000</v>
+        <v>1520000000</v>
       </c>
       <c r="X25">
-        <v>28608000000</v>
+        <v>36187000000</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>77888000000</v>
+        <v>121271000000</v>
       </c>
       <c r="AA25">
-        <v>3324000000</v>
+        <v>4175000000</v>
       </c>
       <c r="AB25">
-        <v>2000000000</v>
+        <v>1231000000</v>
       </c>
       <c r="AC25">
-        <v>725000000</v>
+        <v>789000000</v>
       </c>
       <c r="AD25">
-        <v>13003000000</v>
+        <v>18653000000</v>
       </c>
       <c r="AE25">
-        <v>7982000000</v>
+        <v>7840000000</v>
       </c>
       <c r="AF25">
-        <v>27034000000</v>
+        <v>32688000000</v>
       </c>
       <c r="AG25">
-        <v>3746000000</v>
+        <v>10713000000</v>
       </c>
       <c r="AH25">
-        <v>1281000000</v>
+        <v>1406000000</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1893000000</v>
       </c>
       <c r="AJ25">
-        <v>6269000000</v>
+        <v>8208000000</v>
       </c>
       <c r="AK25">
-        <v>11296000000</v>
+        <v>22220000000</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -5244,52 +5226,52 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>38330000000</v>
+        <v>54908000000</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>62382000000</v>
+        <v>65797000000</v>
       </c>
       <c r="AQ25">
-        <v>-23793000000</v>
+        <v>566000000</v>
       </c>
       <c r="AR25">
-        <v>969000000</v>
+        <v>1422000000</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>-1422000000</v>
       </c>
       <c r="AT25">
-        <v>39558000000</v>
+        <v>66363000000</v>
       </c>
       <c r="AU25">
-        <v>39558000000</v>
+        <v>66363000000</v>
       </c>
       <c r="AV25">
-        <v>77888000000</v>
+        <v>121271000000</v>
       </c>
       <c r="AW25">
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>77888000000</v>
+        <v>121271000000</v>
       </c>
       <c r="AY25">
-        <v>30304000000</v>
+        <v>65878000000</v>
       </c>
       <c r="AZ25">
-        <v>5746000000</v>
+        <v>11944000000</v>
       </c>
       <c r="BA25">
-        <v>-330000000</v>
+        <v>5006000000</v>
       </c>
       <c r="BB25" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:55">
@@ -5297,112 +5279,112 @@
         <v>79</v>
       </c>
       <c r="B26" s="2">
-        <v>40359</v>
+        <v>41455</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J26">
-        <v>5505000000</v>
+        <v>3804000000</v>
       </c>
       <c r="K26">
-        <v>31283000000</v>
+        <v>73218000000</v>
       </c>
       <c r="L26">
-        <v>36788000000</v>
+        <v>77022000000</v>
       </c>
       <c r="M26">
-        <v>13014000000</v>
+        <v>17486000000</v>
       </c>
       <c r="N26">
-        <v>740000000</v>
+        <v>1938000000</v>
       </c>
       <c r="O26">
-        <v>5134000000</v>
+        <v>5020000000</v>
       </c>
       <c r="P26">
-        <v>55676000000</v>
+        <v>101466000000</v>
       </c>
       <c r="Q26">
-        <v>7630000000</v>
+        <v>9991000000</v>
       </c>
       <c r="R26">
-        <v>12394000000</v>
+        <v>14655000000</v>
       </c>
       <c r="S26">
-        <v>1158000000</v>
+        <v>3083000000</v>
       </c>
       <c r="T26">
-        <v>13552000000</v>
+        <v>17738000000</v>
       </c>
       <c r="U26">
-        <v>7754000000</v>
+        <v>10844000000</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1501000000</v>
+        <v>2392000000</v>
       </c>
       <c r="X26">
-        <v>30437000000</v>
+        <v>40965000000</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>86113000000</v>
+        <v>142431000000</v>
       </c>
       <c r="AA26">
-        <v>4025000000</v>
+        <v>4828000000</v>
       </c>
       <c r="AB26">
-        <v>1000000000</v>
+        <v>2999000000</v>
       </c>
       <c r="AC26">
-        <v>1074000000</v>
+        <v>592000000</v>
       </c>
       <c r="AD26">
-        <v>13652000000</v>
+        <v>20639000000</v>
       </c>
       <c r="AE26">
-        <v>6396000000</v>
+        <v>8359000000</v>
       </c>
       <c r="AF26">
-        <v>26147000000</v>
+        <v>37417000000</v>
       </c>
       <c r="AG26">
-        <v>4939000000</v>
+        <v>12601000000</v>
       </c>
       <c r="AH26">
-        <v>1178000000</v>
+        <v>1760000000</v>
       </c>
       <c r="AI26">
-        <v>229000000</v>
+        <v>1709000000</v>
       </c>
       <c r="AJ26">
-        <v>7445000000</v>
+        <v>10000000000</v>
       </c>
       <c r="AK26">
-        <v>13791000000</v>
+        <v>26070000000</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -5411,52 +5393,52 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>39938000000</v>
+        <v>63487000000</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>62856000000</v>
+        <v>67306000000</v>
       </c>
       <c r="AQ26">
-        <v>-16681000000</v>
+        <v>9895000000</v>
       </c>
       <c r="AR26">
-        <v>-8629000000</v>
+        <v>1743000000</v>
       </c>
       <c r="AS26">
-        <v>8629000000</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>46175000000</v>
+        <v>78944000000</v>
       </c>
       <c r="AU26">
-        <v>46175000000</v>
+        <v>78944000000</v>
       </c>
       <c r="AV26">
-        <v>86113000000</v>
+        <v>142431000000</v>
       </c>
       <c r="AW26">
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>86113000000</v>
+        <v>142431000000</v>
       </c>
       <c r="AY26">
-        <v>39037000000</v>
+        <v>84062000000</v>
       </c>
       <c r="AZ26">
-        <v>5939000000</v>
+        <v>15600000000</v>
       </c>
       <c r="BA26">
-        <v>434000000</v>
+        <v>11796000000</v>
       </c>
       <c r="BB26" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="BC26" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:55">
@@ -5464,112 +5446,112 @@
         <v>80</v>
       </c>
       <c r="B27" s="2">
-        <v>40724</v>
+        <v>41820</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" t="s">
         <v>194</v>
       </c>
-      <c r="I27" t="s">
-        <v>206</v>
-      </c>
       <c r="J27">
-        <v>9610000000</v>
+        <v>8669000000</v>
       </c>
       <c r="K27">
-        <v>43162000000</v>
+        <v>77040000000</v>
       </c>
       <c r="L27">
-        <v>52772000000</v>
+        <v>85709000000</v>
       </c>
       <c r="M27">
-        <v>14987000000</v>
+        <v>19544000000</v>
       </c>
       <c r="N27">
-        <v>1372000000</v>
+        <v>2660000000</v>
       </c>
       <c r="O27">
-        <v>5787000000</v>
+        <v>6333000000</v>
       </c>
       <c r="P27">
-        <v>74918000000</v>
+        <v>114246000000</v>
       </c>
       <c r="Q27">
-        <v>8162000000</v>
+        <v>13011000000</v>
       </c>
       <c r="R27">
-        <v>12581000000</v>
+        <v>20127000000</v>
       </c>
       <c r="S27">
-        <v>744000000</v>
+        <v>6981000000</v>
       </c>
       <c r="T27">
-        <v>13325000000</v>
+        <v>27108000000</v>
       </c>
       <c r="U27">
-        <v>10865000000</v>
+        <v>14597000000</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1434000000</v>
+        <v>3422000000</v>
       </c>
       <c r="X27">
-        <v>33786000000</v>
+        <v>58138000000</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>108704000000</v>
+        <v>172384000000</v>
       </c>
       <c r="AA27">
-        <v>4197000000</v>
+        <v>7432000000</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>2000000000</v>
       </c>
       <c r="AC27">
-        <v>580000000</v>
+        <v>782000000</v>
       </c>
       <c r="AD27">
-        <v>15722000000</v>
+        <v>23150000000</v>
       </c>
       <c r="AE27">
-        <v>8275000000</v>
+        <v>12261000000</v>
       </c>
       <c r="AF27">
-        <v>28774000000</v>
+        <v>45625000000</v>
       </c>
       <c r="AG27">
-        <v>11921000000</v>
+        <v>20645000000</v>
       </c>
       <c r="AH27">
-        <v>1398000000</v>
+        <v>2008000000</v>
       </c>
       <c r="AI27">
-        <v>1456000000</v>
+        <v>2728000000</v>
       </c>
       <c r="AJ27">
-        <v>8072000000</v>
+        <v>11594000000</v>
       </c>
       <c r="AK27">
-        <v>22847000000</v>
+        <v>36975000000</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -5578,52 +5560,52 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>51621000000</v>
+        <v>82600000000</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>63415000000</v>
+        <v>68366000000</v>
       </c>
       <c r="AQ27">
-        <v>-8195000000</v>
+        <v>17710000000</v>
       </c>
       <c r="AR27">
-        <v>1863000000</v>
+        <v>3708000000</v>
       </c>
       <c r="AS27">
         <v>0</v>
       </c>
       <c r="AT27">
-        <v>57083000000</v>
+        <v>89784000000</v>
       </c>
       <c r="AU27">
-        <v>57083000000</v>
+        <v>89784000000</v>
       </c>
       <c r="AV27">
-        <v>108704000000</v>
+        <v>172384000000</v>
       </c>
       <c r="AW27">
         <v>0</v>
       </c>
       <c r="AX27">
-        <v>108704000000</v>
+        <v>172384000000</v>
       </c>
       <c r="AY27">
-        <v>54027000000</v>
+        <v>91637000000</v>
       </c>
       <c r="AZ27">
-        <v>11921000000</v>
+        <v>22645000000</v>
       </c>
       <c r="BA27">
-        <v>2311000000</v>
+        <v>13976000000</v>
       </c>
       <c r="BB27" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="BC27" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:55">
@@ -5631,112 +5613,112 @@
         <v>81</v>
       </c>
       <c r="B28" s="2">
-        <v>41090</v>
+        <v>42185</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J28">
-        <v>6938000000</v>
+        <v>5595000000</v>
       </c>
       <c r="K28">
-        <v>56102000000</v>
+        <v>90931000000</v>
       </c>
       <c r="L28">
-        <v>63040000000</v>
+        <v>96526000000</v>
       </c>
       <c r="M28">
-        <v>15780000000</v>
+        <v>17908000000</v>
       </c>
       <c r="N28">
-        <v>1137000000</v>
+        <v>2902000000</v>
       </c>
       <c r="O28">
-        <v>5127000000</v>
+        <v>7376000000</v>
       </c>
       <c r="P28">
-        <v>85084000000</v>
+        <v>124712000000</v>
       </c>
       <c r="Q28">
-        <v>8269000000</v>
+        <v>14731000000</v>
       </c>
       <c r="R28">
-        <v>13452000000</v>
+        <v>16939000000</v>
       </c>
       <c r="S28">
-        <v>3170000000</v>
+        <v>4835000000</v>
       </c>
       <c r="T28">
-        <v>16622000000</v>
+        <v>21774000000</v>
       </c>
       <c r="U28">
-        <v>9776000000</v>
+        <v>12053000000</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1520000000</v>
+        <v>2953000000</v>
       </c>
       <c r="X28">
-        <v>36187000000</v>
+        <v>51511000000</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>121271000000</v>
+        <v>176223000000</v>
       </c>
       <c r="AA28">
-        <v>4175000000</v>
+        <v>6591000000</v>
       </c>
       <c r="AB28">
-        <v>1231000000</v>
+        <v>7484000000</v>
       </c>
       <c r="AC28">
-        <v>789000000</v>
+        <v>606000000</v>
       </c>
       <c r="AD28">
-        <v>18653000000</v>
+        <v>23223000000</v>
       </c>
       <c r="AE28">
-        <v>7840000000</v>
+        <v>11954000000</v>
       </c>
       <c r="AF28">
-        <v>32688000000</v>
+        <v>49858000000</v>
       </c>
       <c r="AG28">
-        <v>10713000000</v>
+        <v>27808000000</v>
       </c>
       <c r="AH28">
-        <v>1406000000</v>
+        <v>2095000000</v>
       </c>
       <c r="AI28">
-        <v>1893000000</v>
+        <v>2835000000</v>
       </c>
       <c r="AJ28">
-        <v>8208000000</v>
+        <v>13544000000</v>
       </c>
       <c r="AK28">
-        <v>22220000000</v>
+        <v>46282000000</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -5745,52 +5727,52 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>54908000000</v>
+        <v>96140000000</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>65797000000</v>
+        <v>68465000000</v>
       </c>
       <c r="AQ28">
-        <v>566000000</v>
+        <v>9096000000</v>
       </c>
       <c r="AR28">
-        <v>1422000000</v>
+        <v>2522000000</v>
       </c>
       <c r="AS28">
-        <v>-1422000000</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>66363000000</v>
+        <v>80083000000</v>
       </c>
       <c r="AU28">
-        <v>66363000000</v>
+        <v>80083000000</v>
       </c>
       <c r="AV28">
-        <v>121271000000</v>
+        <v>176223000000</v>
       </c>
       <c r="AW28">
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>121271000000</v>
+        <v>176223000000</v>
       </c>
       <c r="AY28">
-        <v>65878000000</v>
+        <v>102984000000</v>
       </c>
       <c r="AZ28">
-        <v>11944000000</v>
+        <v>35292000000</v>
       </c>
       <c r="BA28">
-        <v>5006000000</v>
+        <v>29697000000</v>
       </c>
       <c r="BB28" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="BC28" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:55">
@@ -5798,112 +5780,112 @@
         <v>82</v>
       </c>
       <c r="B29" s="2">
-        <v>41455</v>
+        <v>42551</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J29">
-        <v>3804000000</v>
+        <v>6510000000</v>
       </c>
       <c r="K29">
-        <v>73218000000</v>
+        <v>106730000000</v>
       </c>
       <c r="L29">
-        <v>77022000000</v>
+        <v>113240000000</v>
       </c>
       <c r="M29">
-        <v>17486000000</v>
+        <v>18277000000</v>
       </c>
       <c r="N29">
-        <v>1938000000</v>
+        <v>2251000000</v>
       </c>
       <c r="O29">
-        <v>5020000000</v>
+        <v>5892000000</v>
       </c>
       <c r="P29">
-        <v>101466000000</v>
+        <v>139660000000</v>
       </c>
       <c r="Q29">
-        <v>9991000000</v>
+        <v>18356000000</v>
       </c>
       <c r="R29">
-        <v>14655000000</v>
+        <v>17872000000</v>
       </c>
       <c r="S29">
-        <v>3083000000</v>
+        <v>3733000000</v>
       </c>
       <c r="T29">
-        <v>17738000000</v>
+        <v>21605000000</v>
       </c>
       <c r="U29">
-        <v>10844000000</v>
+        <v>10431000000</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>2392000000</v>
+        <v>3642000000</v>
       </c>
       <c r="X29">
-        <v>40965000000</v>
+        <v>54034000000</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>142431000000</v>
+        <v>193694000000</v>
       </c>
       <c r="AA29">
-        <v>4828000000</v>
+        <v>6898000000</v>
       </c>
       <c r="AB29">
-        <v>2999000000</v>
+        <v>12904000000</v>
       </c>
       <c r="AC29">
-        <v>592000000</v>
+        <v>580000000</v>
       </c>
       <c r="AD29">
-        <v>20639000000</v>
+        <v>27468000000</v>
       </c>
       <c r="AE29">
-        <v>8359000000</v>
+        <v>11507000000</v>
       </c>
       <c r="AF29">
-        <v>37417000000</v>
+        <v>59357000000</v>
       </c>
       <c r="AG29">
-        <v>12601000000</v>
+        <v>40783000000</v>
       </c>
       <c r="AH29">
-        <v>1760000000</v>
+        <v>6441000000</v>
       </c>
       <c r="AI29">
-        <v>1709000000</v>
+        <v>1476000000</v>
       </c>
       <c r="AJ29">
-        <v>10000000000</v>
+        <v>13640000000</v>
       </c>
       <c r="AK29">
-        <v>26070000000</v>
+        <v>62340000000</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -5912,52 +5894,52 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>63487000000</v>
+        <v>121697000000</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>67306000000</v>
+        <v>68178000000</v>
       </c>
       <c r="AQ29">
-        <v>9895000000</v>
+        <v>2282000000</v>
       </c>
       <c r="AR29">
-        <v>1743000000</v>
+        <v>1537000000</v>
       </c>
       <c r="AS29">
         <v>0</v>
       </c>
       <c r="AT29">
-        <v>78944000000</v>
+        <v>71997000000</v>
       </c>
       <c r="AU29">
-        <v>78944000000</v>
+        <v>71997000000</v>
       </c>
       <c r="AV29">
-        <v>142431000000</v>
+        <v>193694000000</v>
       </c>
       <c r="AW29">
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>142431000000</v>
+        <v>193694000000</v>
       </c>
       <c r="AY29">
-        <v>84062000000</v>
+        <v>117161000000</v>
       </c>
       <c r="AZ29">
-        <v>15600000000</v>
+        <v>53687000000</v>
       </c>
       <c r="BA29">
-        <v>11796000000</v>
+        <v>47177000000</v>
       </c>
       <c r="BB29" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="BC29" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:55">
@@ -5965,112 +5947,112 @@
         <v>83</v>
       </c>
       <c r="B30" s="2">
-        <v>41820</v>
+        <v>42916</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J30">
-        <v>8669000000</v>
+        <v>7663000000</v>
       </c>
       <c r="K30">
-        <v>77040000000</v>
+        <v>125318000000</v>
       </c>
       <c r="L30">
-        <v>85709000000</v>
+        <v>132981000000</v>
       </c>
       <c r="M30">
-        <v>19544000000</v>
+        <v>19792000000</v>
       </c>
       <c r="N30">
-        <v>2660000000</v>
+        <v>2181000000</v>
       </c>
       <c r="O30">
-        <v>6333000000</v>
+        <v>4897000000</v>
       </c>
       <c r="P30">
-        <v>114246000000</v>
+        <v>159851000000</v>
       </c>
       <c r="Q30">
-        <v>13011000000</v>
+        <v>23734000000</v>
       </c>
       <c r="R30">
-        <v>20127000000</v>
+        <v>35122000000</v>
       </c>
       <c r="S30">
-        <v>6981000000</v>
+        <v>10106000000</v>
       </c>
       <c r="T30">
-        <v>27108000000</v>
+        <v>45228000000</v>
       </c>
       <c r="U30">
-        <v>14597000000</v>
+        <v>6023000000</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>3422000000</v>
+        <v>6250000000</v>
       </c>
       <c r="X30">
-        <v>58138000000</v>
+        <v>81235000000</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>172384000000</v>
+        <v>241086000000</v>
       </c>
       <c r="AA30">
-        <v>7432000000</v>
+        <v>7390000000</v>
       </c>
       <c r="AB30">
-        <v>2000000000</v>
+        <v>10121000000</v>
       </c>
       <c r="AC30">
-        <v>782000000</v>
+        <v>718000000</v>
       </c>
       <c r="AD30">
-        <v>23150000000</v>
+        <v>34102000000</v>
       </c>
       <c r="AE30">
-        <v>12261000000</v>
+        <v>12196000000</v>
       </c>
       <c r="AF30">
-        <v>45625000000</v>
+        <v>64527000000</v>
       </c>
       <c r="AG30">
-        <v>20645000000</v>
+        <v>76073000000</v>
       </c>
       <c r="AH30">
-        <v>2008000000</v>
+        <v>10377000000</v>
       </c>
       <c r="AI30">
-        <v>2728000000</v>
+        <v>531000000</v>
       </c>
       <c r="AJ30">
-        <v>11594000000</v>
+        <v>17184000000</v>
       </c>
       <c r="AK30">
-        <v>36975000000</v>
+        <v>104165000000</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -6079,52 +6061,52 @@
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>82600000000</v>
+        <v>168692000000</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>68366000000</v>
+        <v>69315000000</v>
       </c>
       <c r="AQ30">
-        <v>17710000000</v>
+        <v>2648000000</v>
       </c>
       <c r="AR30">
-        <v>3708000000</v>
+        <v>431000000</v>
       </c>
       <c r="AS30">
         <v>0</v>
       </c>
       <c r="AT30">
-        <v>89784000000</v>
+        <v>72394000000</v>
       </c>
       <c r="AU30">
-        <v>89784000000</v>
+        <v>72394000000</v>
       </c>
       <c r="AV30">
-        <v>172384000000</v>
+        <v>241086000000</v>
       </c>
       <c r="AW30">
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>172384000000</v>
+        <v>241086000000</v>
       </c>
       <c r="AY30">
-        <v>91637000000</v>
+        <v>131341000000</v>
       </c>
       <c r="AZ30">
-        <v>22645000000</v>
+        <v>86194000000</v>
       </c>
       <c r="BA30">
-        <v>13976000000</v>
+        <v>78531000000</v>
       </c>
       <c r="BB30" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="BC30" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:55">
@@ -6132,166 +6114,166 @@
         <v>84</v>
       </c>
       <c r="B31" s="2">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H31" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J31">
-        <v>5595000000</v>
+        <v>11946000000</v>
       </c>
       <c r="K31">
-        <v>90931000000</v>
+        <v>121822000000</v>
       </c>
       <c r="L31">
-        <v>96526000000</v>
+        <v>133768000000</v>
       </c>
       <c r="M31">
-        <v>17908000000</v>
+        <v>26481000000</v>
       </c>
       <c r="N31">
-        <v>2902000000</v>
+        <v>2662000000</v>
       </c>
       <c r="O31">
-        <v>7376000000</v>
+        <v>6751000000</v>
       </c>
       <c r="P31">
-        <v>124712000000</v>
+        <v>169662000000</v>
       </c>
       <c r="Q31">
-        <v>14731000000</v>
+        <v>36146000000</v>
       </c>
       <c r="R31">
-        <v>16939000000</v>
+        <v>35683000000</v>
       </c>
       <c r="S31">
-        <v>4835000000</v>
+        <v>8053000000</v>
       </c>
       <c r="T31">
-        <v>21774000000</v>
+        <v>43736000000</v>
       </c>
       <c r="U31">
-        <v>12053000000</v>
+        <v>1862000000</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>2953000000</v>
+        <v>7442000000</v>
       </c>
       <c r="X31">
-        <v>51511000000</v>
+        <v>89186000000</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>176223000000</v>
+        <v>258848000000</v>
       </c>
       <c r="AA31">
-        <v>6591000000</v>
+        <v>8617000000</v>
       </c>
       <c r="AB31">
-        <v>7484000000</v>
+        <v>3998000000</v>
       </c>
       <c r="AC31">
-        <v>606000000</v>
+        <v>2121000000</v>
       </c>
       <c r="AD31">
-        <v>23223000000</v>
+        <v>28905000000</v>
       </c>
       <c r="AE31">
-        <v>11954000000</v>
+        <v>14847000000</v>
       </c>
       <c r="AF31">
-        <v>49858000000</v>
+        <v>58488000000</v>
       </c>
       <c r="AG31">
-        <v>27808000000</v>
+        <v>77810000000</v>
       </c>
       <c r="AH31">
-        <v>2095000000</v>
+        <v>3815000000</v>
       </c>
       <c r="AI31">
-        <v>2835000000</v>
+        <v>541000000</v>
       </c>
       <c r="AJ31">
-        <v>13544000000</v>
+        <v>35476000000</v>
       </c>
       <c r="AK31">
-        <v>46282000000</v>
+        <v>117642000000</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>5568000000</v>
       </c>
       <c r="AN31">
-        <v>96140000000</v>
+        <v>176130000000</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>68465000000</v>
+        <v>71223000000</v>
       </c>
       <c r="AQ31">
-        <v>9096000000</v>
+        <v>13682000000</v>
       </c>
       <c r="AR31">
-        <v>2522000000</v>
+        <v>-2187000000</v>
       </c>
       <c r="AS31">
         <v>0</v>
       </c>
       <c r="AT31">
-        <v>80083000000</v>
+        <v>82718000000</v>
       </c>
       <c r="AU31">
-        <v>80083000000</v>
+        <v>82718000000</v>
       </c>
       <c r="AV31">
-        <v>176223000000</v>
+        <v>258848000000</v>
       </c>
       <c r="AW31">
         <v>0</v>
       </c>
       <c r="AX31">
-        <v>176223000000</v>
+        <v>258848000000</v>
       </c>
       <c r="AY31">
-        <v>102984000000</v>
+        <v>123684000000</v>
       </c>
       <c r="AZ31">
-        <v>35292000000</v>
+        <v>81808000000</v>
       </c>
       <c r="BA31">
-        <v>29697000000</v>
+        <v>69862000000</v>
       </c>
       <c r="BB31" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BC31" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:55">
@@ -6299,166 +6281,166 @@
         <v>85</v>
       </c>
       <c r="B32" s="2">
-        <v>42551</v>
+        <v>43646</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J32">
-        <v>6510000000</v>
+        <v>11356000000</v>
       </c>
       <c r="K32">
-        <v>106730000000</v>
+        <v>122463000000</v>
       </c>
       <c r="L32">
-        <v>113240000000</v>
+        <v>133819000000</v>
       </c>
       <c r="M32">
-        <v>18277000000</v>
+        <v>29524000000</v>
       </c>
       <c r="N32">
-        <v>2251000000</v>
+        <v>2063000000</v>
       </c>
       <c r="O32">
-        <v>5892000000</v>
+        <v>10146000000</v>
       </c>
       <c r="P32">
-        <v>139660000000</v>
+        <v>175552000000</v>
       </c>
       <c r="Q32">
-        <v>18356000000</v>
+        <v>43856000000</v>
       </c>
       <c r="R32">
-        <v>17872000000</v>
+        <v>42026000000</v>
       </c>
       <c r="S32">
-        <v>3733000000</v>
+        <v>7750000000</v>
       </c>
       <c r="T32">
-        <v>21605000000</v>
+        <v>49776000000</v>
       </c>
       <c r="U32">
-        <v>10431000000</v>
+        <v>2649000000</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>3642000000</v>
+        <v>14723000000</v>
       </c>
       <c r="X32">
-        <v>54034000000</v>
+        <v>111004000000</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>193694000000</v>
+        <v>286556000000</v>
       </c>
       <c r="AA32">
-        <v>6898000000</v>
+        <v>9382000000</v>
       </c>
       <c r="AB32">
-        <v>12904000000</v>
+        <v>5516000000</v>
       </c>
       <c r="AC32">
-        <v>580000000</v>
+        <v>5665000000</v>
       </c>
       <c r="AD32">
-        <v>27468000000</v>
+        <v>32676000000</v>
       </c>
       <c r="AE32">
-        <v>11507000000</v>
+        <v>16181000000</v>
       </c>
       <c r="AF32">
-        <v>59357000000</v>
+        <v>69420000000</v>
       </c>
       <c r="AG32">
-        <v>40783000000</v>
+        <v>72850000000</v>
       </c>
       <c r="AH32">
-        <v>6441000000</v>
+        <v>4530000000</v>
       </c>
       <c r="AI32">
-        <v>1476000000</v>
+        <v>233000000</v>
       </c>
       <c r="AJ32">
-        <v>13640000000</v>
+        <v>37193000000</v>
       </c>
       <c r="AK32">
-        <v>62340000000</v>
+        <v>114806000000</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>6188000000</v>
       </c>
       <c r="AN32">
-        <v>121697000000</v>
+        <v>184226000000</v>
       </c>
       <c r="AO32">
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>68178000000</v>
+        <v>78520000000</v>
       </c>
       <c r="AQ32">
-        <v>2282000000</v>
+        <v>24150000000</v>
       </c>
       <c r="AR32">
-        <v>1537000000</v>
+        <v>-340000000</v>
       </c>
       <c r="AS32">
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>71997000000</v>
+        <v>102330000000</v>
       </c>
       <c r="AU32">
-        <v>71997000000</v>
+        <v>102330000000</v>
       </c>
       <c r="AV32">
-        <v>193694000000</v>
+        <v>286556000000</v>
       </c>
       <c r="AW32">
         <v>0</v>
       </c>
       <c r="AX32">
-        <v>193694000000</v>
+        <v>286556000000</v>
       </c>
       <c r="AY32">
-        <v>117161000000</v>
+        <v>125112000000</v>
       </c>
       <c r="AZ32">
-        <v>53687000000</v>
+        <v>78366000000</v>
       </c>
       <c r="BA32">
-        <v>47177000000</v>
+        <v>67010000000</v>
       </c>
       <c r="BB32" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="BC32" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:55">
@@ -6466,166 +6448,166 @@
         <v>86</v>
       </c>
       <c r="B33" s="2">
-        <v>42916</v>
+        <v>44012</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J33">
-        <v>7663000000</v>
+        <v>13576000000</v>
       </c>
       <c r="K33">
-        <v>125318000000</v>
+        <v>122951000000</v>
       </c>
       <c r="L33">
-        <v>132981000000</v>
+        <v>136527000000</v>
       </c>
       <c r="M33">
-        <v>19792000000</v>
+        <v>32011000000</v>
       </c>
       <c r="N33">
-        <v>2181000000</v>
+        <v>1895000000</v>
       </c>
       <c r="O33">
-        <v>4897000000</v>
+        <v>11482000000</v>
       </c>
       <c r="P33">
-        <v>159851000000</v>
+        <v>181915000000</v>
       </c>
       <c r="Q33">
-        <v>23734000000</v>
+        <v>52904000000</v>
       </c>
       <c r="R33">
-        <v>35122000000</v>
+        <v>43351000000</v>
       </c>
       <c r="S33">
-        <v>10106000000</v>
+        <v>7038000000</v>
       </c>
       <c r="T33">
-        <v>45228000000</v>
+        <v>50389000000</v>
       </c>
       <c r="U33">
-        <v>6023000000</v>
+        <v>2965000000</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>6250000000</v>
+        <v>13138000000</v>
       </c>
       <c r="X33">
-        <v>81235000000</v>
+        <v>119396000000</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>241086000000</v>
+        <v>301311000000</v>
       </c>
       <c r="AA33">
-        <v>7390000000</v>
+        <v>12530000000</v>
       </c>
       <c r="AB33">
-        <v>10121000000</v>
+        <v>3749000000</v>
       </c>
       <c r="AC33">
-        <v>718000000</v>
+        <v>2130000000</v>
       </c>
       <c r="AD33">
-        <v>34102000000</v>
+        <v>36000000000</v>
       </c>
       <c r="AE33">
-        <v>12196000000</v>
+        <v>17901000000</v>
       </c>
       <c r="AF33">
-        <v>64527000000</v>
+        <v>72310000000</v>
       </c>
       <c r="AG33">
-        <v>76073000000</v>
+        <v>67249000000</v>
       </c>
       <c r="AH33">
-        <v>10377000000</v>
+        <v>3180000000</v>
       </c>
       <c r="AI33">
-        <v>531000000</v>
+        <v>204000000</v>
       </c>
       <c r="AJ33">
-        <v>17184000000</v>
+        <v>40064000000</v>
       </c>
       <c r="AK33">
-        <v>104165000000</v>
+        <v>110697000000</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>7671000000</v>
       </c>
       <c r="AN33">
-        <v>168692000000</v>
+        <v>183007000000</v>
       </c>
       <c r="AO33">
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>69315000000</v>
+        <v>80552000000</v>
       </c>
       <c r="AQ33">
-        <v>2648000000</v>
+        <v>34566000000</v>
       </c>
       <c r="AR33">
-        <v>431000000</v>
+        <v>3186000000</v>
       </c>
       <c r="AS33">
         <v>0</v>
       </c>
       <c r="AT33">
-        <v>72394000000</v>
+        <v>118304000000</v>
       </c>
       <c r="AU33">
-        <v>72394000000</v>
+        <v>118304000000</v>
       </c>
       <c r="AV33">
-        <v>241086000000</v>
+        <v>301311000000</v>
       </c>
       <c r="AW33">
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>241086000000</v>
+        <v>301311000000</v>
       </c>
       <c r="AY33">
-        <v>131341000000</v>
+        <v>125916000000</v>
       </c>
       <c r="AZ33">
-        <v>86194000000</v>
+        <v>70998000000</v>
       </c>
       <c r="BA33">
-        <v>78531000000</v>
+        <v>57422000000</v>
       </c>
       <c r="BB33" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="BC33" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:55">
@@ -6633,166 +6615,166 @@
         <v>87</v>
       </c>
       <c r="B34" s="2">
-        <v>43281</v>
+        <v>44377</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J34">
-        <v>11946000000</v>
+        <v>14224000000</v>
       </c>
       <c r="K34">
-        <v>121822000000</v>
+        <v>116110000000</v>
       </c>
       <c r="L34">
-        <v>133768000000</v>
+        <v>130334000000</v>
       </c>
       <c r="M34">
-        <v>26481000000</v>
+        <v>38043000000</v>
       </c>
       <c r="N34">
-        <v>2662000000</v>
+        <v>2636000000</v>
       </c>
       <c r="O34">
-        <v>6751000000</v>
+        <v>13393000000</v>
       </c>
       <c r="P34">
-        <v>169662000000</v>
+        <v>184406000000</v>
       </c>
       <c r="Q34">
-        <v>36146000000</v>
+        <v>70803000000</v>
       </c>
       <c r="R34">
-        <v>35683000000</v>
+        <v>49711000000</v>
       </c>
       <c r="S34">
-        <v>8053000000</v>
+        <v>7800000000</v>
       </c>
       <c r="T34">
-        <v>43736000000</v>
+        <v>57511000000</v>
       </c>
       <c r="U34">
-        <v>1862000000</v>
+        <v>5984000000</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>7442000000</v>
+        <v>15075000000</v>
       </c>
       <c r="X34">
-        <v>89186000000</v>
+        <v>149373000000</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>258848000000</v>
+        <v>333779000000</v>
       </c>
       <c r="AA34">
-        <v>8617000000</v>
+        <v>15163000000</v>
       </c>
       <c r="AB34">
-        <v>3998000000</v>
+        <v>8072000000</v>
       </c>
       <c r="AC34">
-        <v>2121000000</v>
+        <v>2174000000</v>
       </c>
       <c r="AD34">
-        <v>28905000000</v>
+        <v>41525000000</v>
       </c>
       <c r="AE34">
-        <v>14847000000</v>
+        <v>21723000000</v>
       </c>
       <c r="AF34">
-        <v>58488000000</v>
+        <v>88657000000</v>
       </c>
       <c r="AG34">
-        <v>77810000000</v>
+        <v>59703000000</v>
       </c>
       <c r="AH34">
-        <v>3815000000</v>
+        <v>2616000000</v>
       </c>
       <c r="AI34">
-        <v>541000000</v>
+        <v>198000000</v>
       </c>
       <c r="AJ34">
-        <v>35476000000</v>
+        <v>40617000000</v>
       </c>
       <c r="AK34">
-        <v>117642000000</v>
+        <v>103134000000</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
-        <v>5568000000</v>
+        <v>9629000000</v>
       </c>
       <c r="AN34">
-        <v>176130000000</v>
+        <v>191791000000</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>71223000000</v>
+        <v>83111000000</v>
       </c>
       <c r="AQ34">
-        <v>13682000000</v>
+        <v>57055000000</v>
       </c>
       <c r="AR34">
-        <v>-2187000000</v>
+        <v>1822000000</v>
       </c>
       <c r="AS34">
         <v>0</v>
       </c>
       <c r="AT34">
-        <v>82718000000</v>
+        <v>141988000000</v>
       </c>
       <c r="AU34">
-        <v>82718000000</v>
+        <v>141988000000</v>
       </c>
       <c r="AV34">
-        <v>258848000000</v>
+        <v>333779000000</v>
       </c>
       <c r="AW34">
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>258848000000</v>
+        <v>333779000000</v>
       </c>
       <c r="AY34">
-        <v>123684000000</v>
+        <v>122094000000</v>
       </c>
       <c r="AZ34">
-        <v>81808000000</v>
+        <v>67775000000</v>
       </c>
       <c r="BA34">
-        <v>69862000000</v>
+        <v>53551000000</v>
       </c>
       <c r="BB34" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BC34" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:55">
@@ -6800,725 +6782,224 @@
         <v>88</v>
       </c>
       <c r="B35" s="2">
-        <v>43646</v>
+        <v>44742</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H35" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J35">
-        <v>11356000000</v>
+        <v>13931000000</v>
       </c>
       <c r="K35">
-        <v>122463000000</v>
+        <v>90818000000</v>
       </c>
       <c r="L35">
-        <v>133819000000</v>
+        <v>104749000000</v>
       </c>
       <c r="M35">
-        <v>29524000000</v>
+        <v>44261000000</v>
       </c>
       <c r="N35">
-        <v>2063000000</v>
+        <v>3742000000</v>
       </c>
       <c r="O35">
-        <v>10146000000</v>
+        <v>16932000000</v>
       </c>
       <c r="P35">
-        <v>175552000000</v>
+        <v>169684000000</v>
       </c>
       <c r="Q35">
-        <v>43856000000</v>
+        <v>87546000000</v>
       </c>
       <c r="R35">
-        <v>42026000000</v>
+        <v>67524000000</v>
       </c>
       <c r="S35">
-        <v>7750000000</v>
+        <v>11298000000</v>
       </c>
       <c r="T35">
-        <v>49776000000</v>
+        <v>78822000000</v>
       </c>
       <c r="U35">
-        <v>2649000000</v>
+        <v>6891000000</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>14723000000</v>
+        <v>21897000000</v>
       </c>
       <c r="X35">
-        <v>111004000000</v>
+        <v>195156000000</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>286556000000</v>
+        <v>364840000000</v>
       </c>
       <c r="AA35">
-        <v>9382000000</v>
+        <v>19000000000</v>
       </c>
       <c r="AB35">
-        <v>5516000000</v>
+        <v>2749000000</v>
       </c>
       <c r="AC35">
-        <v>5665000000</v>
+        <v>4067000000</v>
       </c>
       <c r="AD35">
-        <v>32676000000</v>
+        <v>45538000000</v>
       </c>
       <c r="AE35">
-        <v>16181000000</v>
+        <v>23728000000</v>
       </c>
       <c r="AF35">
-        <v>69420000000</v>
+        <v>95082000000</v>
       </c>
       <c r="AG35">
-        <v>72850000000</v>
+        <v>58521000000</v>
       </c>
       <c r="AH35">
-        <v>4530000000</v>
+        <v>2870000000</v>
       </c>
       <c r="AI35">
-        <v>233000000</v>
+        <v>230000000</v>
       </c>
       <c r="AJ35">
-        <v>37193000000</v>
+        <v>41595000000</v>
       </c>
       <c r="AK35">
-        <v>114806000000</v>
+        <v>103216000000</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>6188000000</v>
+        <v>11489000000</v>
       </c>
       <c r="AN35">
-        <v>184226000000</v>
+        <v>198298000000</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>78520000000</v>
+        <v>86939000000</v>
       </c>
       <c r="AQ35">
-        <v>24150000000</v>
+        <v>84281000000</v>
       </c>
       <c r="AR35">
-        <v>-340000000</v>
+        <v>-4678000000</v>
       </c>
       <c r="AS35">
         <v>0</v>
       </c>
       <c r="AT35">
-        <v>102330000000</v>
+        <v>166542000000</v>
       </c>
       <c r="AU35">
-        <v>102330000000</v>
+        <v>166542000000</v>
       </c>
       <c r="AV35">
-        <v>286556000000</v>
+        <v>364840000000</v>
       </c>
       <c r="AW35">
         <v>0</v>
       </c>
       <c r="AX35">
-        <v>286556000000</v>
+        <v>364840000000</v>
       </c>
       <c r="AY35">
-        <v>125112000000</v>
+        <v>97709000000</v>
       </c>
       <c r="AZ35">
-        <v>78366000000</v>
+        <v>61270000000</v>
       </c>
       <c r="BA35">
-        <v>67010000000</v>
+        <v>47339000000</v>
       </c>
       <c r="BB35" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="BC35" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:55">
-      <c r="A36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44012</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" t="s">
-        <v>206</v>
-      </c>
-      <c r="J36">
-        <v>13576000000</v>
-      </c>
-      <c r="K36">
-        <v>122951000000</v>
-      </c>
-      <c r="L36">
-        <v>136527000000</v>
-      </c>
-      <c r="M36">
-        <v>32011000000</v>
-      </c>
-      <c r="N36">
-        <v>1895000000</v>
-      </c>
-      <c r="O36">
-        <v>11482000000</v>
-      </c>
-      <c r="P36">
-        <v>181915000000</v>
-      </c>
-      <c r="Q36">
-        <v>52904000000</v>
-      </c>
-      <c r="R36">
-        <v>43351000000</v>
-      </c>
-      <c r="S36">
-        <v>7038000000</v>
-      </c>
-      <c r="T36">
-        <v>50389000000</v>
-      </c>
-      <c r="U36">
-        <v>2965000000</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>13138000000</v>
-      </c>
-      <c r="X36">
-        <v>119396000000</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>301311000000</v>
-      </c>
-      <c r="AA36">
-        <v>12530000000</v>
-      </c>
-      <c r="AB36">
-        <v>3749000000</v>
-      </c>
-      <c r="AC36">
-        <v>2130000000</v>
-      </c>
-      <c r="AD36">
-        <v>36000000000</v>
-      </c>
-      <c r="AE36">
-        <v>17901000000</v>
-      </c>
-      <c r="AF36">
-        <v>72310000000</v>
-      </c>
-      <c r="AG36">
-        <v>67249000000</v>
-      </c>
-      <c r="AH36">
-        <v>3180000000</v>
-      </c>
-      <c r="AI36">
-        <v>204000000</v>
-      </c>
-      <c r="AJ36">
-        <v>40064000000</v>
-      </c>
-      <c r="AK36">
-        <v>110697000000</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>7671000000</v>
-      </c>
-      <c r="AN36">
-        <v>183007000000</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>80552000000</v>
-      </c>
-      <c r="AQ36">
-        <v>34566000000</v>
-      </c>
-      <c r="AR36">
-        <v>3186000000</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>118304000000</v>
-      </c>
-      <c r="AU36">
-        <v>118304000000</v>
-      </c>
-      <c r="AV36">
-        <v>301311000000</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>301311000000</v>
-      </c>
-      <c r="AY36">
-        <v>125916000000</v>
-      </c>
-      <c r="AZ36">
-        <v>70998000000</v>
-      </c>
-      <c r="BA36">
-        <v>57422000000</v>
-      </c>
-      <c r="BB36" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BC36" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:55">
-      <c r="A37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44377</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" t="s">
-        <v>204</v>
-      </c>
-      <c r="I37" t="s">
-        <v>206</v>
-      </c>
-      <c r="J37">
-        <v>14224000000</v>
-      </c>
-      <c r="K37">
-        <v>116110000000</v>
-      </c>
-      <c r="L37">
-        <v>130334000000</v>
-      </c>
-      <c r="M37">
-        <v>38043000000</v>
-      </c>
-      <c r="N37">
-        <v>2636000000</v>
-      </c>
-      <c r="O37">
-        <v>13393000000</v>
-      </c>
-      <c r="P37">
-        <v>184406000000</v>
-      </c>
-      <c r="Q37">
-        <v>70803000000</v>
-      </c>
-      <c r="R37">
-        <v>49711000000</v>
-      </c>
-      <c r="S37">
-        <v>7800000000</v>
-      </c>
-      <c r="T37">
-        <v>57511000000</v>
-      </c>
-      <c r="U37">
-        <v>5984000000</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>15075000000</v>
-      </c>
-      <c r="X37">
-        <v>149373000000</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>333779000000</v>
-      </c>
-      <c r="AA37">
-        <v>15163000000</v>
-      </c>
-      <c r="AB37">
-        <v>8072000000</v>
-      </c>
-      <c r="AC37">
-        <v>2174000000</v>
-      </c>
-      <c r="AD37">
-        <v>41525000000</v>
-      </c>
-      <c r="AE37">
-        <v>21723000000</v>
-      </c>
-      <c r="AF37">
-        <v>88657000000</v>
-      </c>
-      <c r="AG37">
-        <v>59703000000</v>
-      </c>
-      <c r="AH37">
-        <v>2616000000</v>
-      </c>
-      <c r="AI37">
-        <v>198000000</v>
-      </c>
-      <c r="AJ37">
-        <v>40617000000</v>
-      </c>
-      <c r="AK37">
-        <v>103134000000</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>9629000000</v>
-      </c>
-      <c r="AN37">
-        <v>191791000000</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>83111000000</v>
-      </c>
-      <c r="AQ37">
-        <v>57055000000</v>
-      </c>
-      <c r="AR37">
-        <v>1822000000</v>
-      </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>141988000000</v>
-      </c>
-      <c r="AU37">
-        <v>141988000000</v>
-      </c>
-      <c r="AV37">
-        <v>333779000000</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
-        <v>333779000000</v>
-      </c>
-      <c r="AY37">
-        <v>122094000000</v>
-      </c>
-      <c r="AZ37">
-        <v>67775000000</v>
-      </c>
-      <c r="BA37">
-        <v>53551000000</v>
-      </c>
-      <c r="BB37" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="BC37" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:55">
-      <c r="A38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44742</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38" t="s">
-        <v>206</v>
-      </c>
-      <c r="J38">
-        <v>13931000000</v>
-      </c>
-      <c r="K38">
-        <v>90818000000</v>
-      </c>
-      <c r="L38">
-        <v>104749000000</v>
-      </c>
-      <c r="M38">
-        <v>44261000000</v>
-      </c>
-      <c r="N38">
-        <v>3742000000</v>
-      </c>
-      <c r="O38">
-        <v>16932000000</v>
-      </c>
-      <c r="P38">
-        <v>169684000000</v>
-      </c>
-      <c r="Q38">
-        <v>87546000000</v>
-      </c>
-      <c r="R38">
-        <v>67524000000</v>
-      </c>
-      <c r="S38">
-        <v>11298000000</v>
-      </c>
-      <c r="T38">
-        <v>78822000000</v>
-      </c>
-      <c r="U38">
-        <v>6891000000</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>21897000000</v>
-      </c>
-      <c r="X38">
-        <v>195156000000</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>364840000000</v>
-      </c>
-      <c r="AA38">
-        <v>19000000000</v>
-      </c>
-      <c r="AB38">
-        <v>2749000000</v>
-      </c>
-      <c r="AC38">
-        <v>4067000000</v>
-      </c>
-      <c r="AD38">
-        <v>45538000000</v>
-      </c>
-      <c r="AE38">
-        <v>23728000000</v>
-      </c>
-      <c r="AF38">
-        <v>95082000000</v>
-      </c>
-      <c r="AG38">
-        <v>58521000000</v>
-      </c>
-      <c r="AH38">
-        <v>2870000000</v>
-      </c>
-      <c r="AI38">
-        <v>230000000</v>
-      </c>
-      <c r="AJ38">
-        <v>41595000000</v>
-      </c>
-      <c r="AK38">
-        <v>103216000000</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>11489000000</v>
-      </c>
-      <c r="AN38">
-        <v>198298000000</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>86939000000</v>
-      </c>
-      <c r="AQ38">
-        <v>84281000000</v>
-      </c>
-      <c r="AR38">
-        <v>-4678000000</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>166542000000</v>
-      </c>
-      <c r="AU38">
-        <v>166542000000</v>
-      </c>
-      <c r="AV38">
-        <v>364840000000</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>364840000000</v>
-      </c>
-      <c r="AY38">
-        <v>97709000000</v>
-      </c>
-      <c r="AZ38">
-        <v>61270000000</v>
-      </c>
-      <c r="BA38">
-        <v>47339000000</v>
-      </c>
-      <c r="BB38" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC38" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BB10" r:id="rId1"/>
-    <hyperlink ref="BC10" r:id="rId2"/>
-    <hyperlink ref="BB11" r:id="rId3"/>
-    <hyperlink ref="BC11" r:id="rId4"/>
-    <hyperlink ref="BB12" r:id="rId5"/>
-    <hyperlink ref="BC12" r:id="rId6"/>
-    <hyperlink ref="BB13" r:id="rId7"/>
-    <hyperlink ref="BC13" r:id="rId8"/>
-    <hyperlink ref="BB16" r:id="rId9"/>
-    <hyperlink ref="BC16" r:id="rId10"/>
-    <hyperlink ref="BB17" r:id="rId11"/>
-    <hyperlink ref="BC17" r:id="rId12"/>
-    <hyperlink ref="BB18" r:id="rId13"/>
-    <hyperlink ref="BC18" r:id="rId14"/>
-    <hyperlink ref="BB19" r:id="rId15"/>
-    <hyperlink ref="BC19" r:id="rId16"/>
-    <hyperlink ref="BB20" r:id="rId17"/>
-    <hyperlink ref="BC20" r:id="rId18"/>
-    <hyperlink ref="BB21" r:id="rId19"/>
-    <hyperlink ref="BC21" r:id="rId20"/>
-    <hyperlink ref="BB22" r:id="rId21"/>
-    <hyperlink ref="BC22" r:id="rId22"/>
-    <hyperlink ref="BB23" r:id="rId23"/>
-    <hyperlink ref="BC23" r:id="rId24"/>
-    <hyperlink ref="BB24" r:id="rId25"/>
-    <hyperlink ref="BC24" r:id="rId26"/>
-    <hyperlink ref="BB25" r:id="rId27"/>
-    <hyperlink ref="BC25" r:id="rId28"/>
-    <hyperlink ref="BB26" r:id="rId29"/>
-    <hyperlink ref="BC26" r:id="rId30"/>
-    <hyperlink ref="BB27" r:id="rId31"/>
-    <hyperlink ref="BC27" r:id="rId32"/>
-    <hyperlink ref="BB28" r:id="rId33"/>
-    <hyperlink ref="BC28" r:id="rId34"/>
-    <hyperlink ref="BB29" r:id="rId35"/>
-    <hyperlink ref="BC29" r:id="rId36"/>
-    <hyperlink ref="BB30" r:id="rId37"/>
-    <hyperlink ref="BC30" r:id="rId38"/>
-    <hyperlink ref="BB31" r:id="rId39"/>
-    <hyperlink ref="BC31" r:id="rId40"/>
-    <hyperlink ref="BB32" r:id="rId41"/>
-    <hyperlink ref="BC32" r:id="rId42"/>
-    <hyperlink ref="BB33" r:id="rId43"/>
-    <hyperlink ref="BC33" r:id="rId44"/>
-    <hyperlink ref="BB34" r:id="rId45"/>
-    <hyperlink ref="BC34" r:id="rId46"/>
-    <hyperlink ref="BB35" r:id="rId47"/>
-    <hyperlink ref="BC35" r:id="rId48"/>
-    <hyperlink ref="BB36" r:id="rId49"/>
-    <hyperlink ref="BC36" r:id="rId50"/>
-    <hyperlink ref="BB37" r:id="rId51"/>
-    <hyperlink ref="BC37" r:id="rId52"/>
-    <hyperlink ref="BB38" r:id="rId53"/>
-    <hyperlink ref="BC38" r:id="rId54"/>
+    <hyperlink ref="BB7" r:id="rId1"/>
+    <hyperlink ref="BC7" r:id="rId2"/>
+    <hyperlink ref="BB8" r:id="rId3"/>
+    <hyperlink ref="BC8" r:id="rId4"/>
+    <hyperlink ref="BB9" r:id="rId5"/>
+    <hyperlink ref="BC9" r:id="rId6"/>
+    <hyperlink ref="BB10" r:id="rId7"/>
+    <hyperlink ref="BC10" r:id="rId8"/>
+    <hyperlink ref="BB13" r:id="rId9"/>
+    <hyperlink ref="BC13" r:id="rId10"/>
+    <hyperlink ref="BB14" r:id="rId11"/>
+    <hyperlink ref="BC14" r:id="rId12"/>
+    <hyperlink ref="BB15" r:id="rId13"/>
+    <hyperlink ref="BC15" r:id="rId14"/>
+    <hyperlink ref="BB16" r:id="rId15"/>
+    <hyperlink ref="BC16" r:id="rId16"/>
+    <hyperlink ref="BB17" r:id="rId17"/>
+    <hyperlink ref="BC17" r:id="rId18"/>
+    <hyperlink ref="BB18" r:id="rId19"/>
+    <hyperlink ref="BC18" r:id="rId20"/>
+    <hyperlink ref="BB19" r:id="rId21"/>
+    <hyperlink ref="BC19" r:id="rId22"/>
+    <hyperlink ref="BB20" r:id="rId23"/>
+    <hyperlink ref="BC20" r:id="rId24"/>
+    <hyperlink ref="BB21" r:id="rId25"/>
+    <hyperlink ref="BC21" r:id="rId26"/>
+    <hyperlink ref="BB22" r:id="rId27"/>
+    <hyperlink ref="BC22" r:id="rId28"/>
+    <hyperlink ref="BB23" r:id="rId29"/>
+    <hyperlink ref="BC23" r:id="rId30"/>
+    <hyperlink ref="BB24" r:id="rId31"/>
+    <hyperlink ref="BC24" r:id="rId32"/>
+    <hyperlink ref="BB25" r:id="rId33"/>
+    <hyperlink ref="BC25" r:id="rId34"/>
+    <hyperlink ref="BB26" r:id="rId35"/>
+    <hyperlink ref="BC26" r:id="rId36"/>
+    <hyperlink ref="BB27" r:id="rId37"/>
+    <hyperlink ref="BC27" r:id="rId38"/>
+    <hyperlink ref="BB28" r:id="rId39"/>
+    <hyperlink ref="BC28" r:id="rId40"/>
+    <hyperlink ref="BB29" r:id="rId41"/>
+    <hyperlink ref="BC29" r:id="rId42"/>
+    <hyperlink ref="BB30" r:id="rId43"/>
+    <hyperlink ref="BC30" r:id="rId44"/>
+    <hyperlink ref="BB31" r:id="rId45"/>
+    <hyperlink ref="BC31" r:id="rId46"/>
+    <hyperlink ref="BB32" r:id="rId47"/>
+    <hyperlink ref="BC32" r:id="rId48"/>
+    <hyperlink ref="BB33" r:id="rId49"/>
+    <hyperlink ref="BC33" r:id="rId50"/>
+    <hyperlink ref="BB34" r:id="rId51"/>
+    <hyperlink ref="BC34" r:id="rId52"/>
+    <hyperlink ref="BB35" r:id="rId53"/>
+    <hyperlink ref="BC35" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
